--- a/BackTest/2019-10-30 BackTest CTXC.xlsx
+++ b/BackTest/2019-10-30 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:M133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="C2" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="D2" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="E2" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="F2" t="n">
-        <v>15389.675</v>
+        <v>604.5505000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>90.13333333333337</v>
+        <v>66894.46970000002</v>
       </c>
       <c r="H2" t="n">
-        <v>90.49833333333342</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,42 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>89.5</v>
+        <v>91</v>
       </c>
       <c r="C3" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="D3" t="n">
-        <v>89.5</v>
+        <v>91</v>
       </c>
       <c r="E3" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="F3" t="n">
-        <v>27815.4745</v>
+        <v>1073.2601</v>
       </c>
       <c r="G3" t="n">
-        <v>89.93333333333337</v>
+        <v>67967.72980000002</v>
       </c>
       <c r="H3" t="n">
-        <v>90.44666666666674</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>89.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,42 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="C4" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="E4" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="F4" t="n">
-        <v>8948.860199999999</v>
+        <v>2129.2448</v>
       </c>
       <c r="G4" t="n">
-        <v>89.73333333333336</v>
+        <v>67967.72980000002</v>
       </c>
       <c r="H4" t="n">
-        <v>90.39500000000007</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>87.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,42 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>87.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>87.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>87.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>87.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>5278.6957</v>
+        <v>166.3973</v>
       </c>
       <c r="G5" t="n">
-        <v>89.52000000000002</v>
+        <v>68134.12710000001</v>
       </c>
       <c r="H5" t="n">
-        <v>90.3433333333334</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>87.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,42 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="C6" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="D6" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="E6" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>3100</v>
       </c>
       <c r="G6" t="n">
-        <v>89.31333333333336</v>
+        <v>65034.12710000001</v>
       </c>
       <c r="H6" t="n">
-        <v>90.29166666666673</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>87.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>87.2</v>
+        <v>91</v>
       </c>
       <c r="C7" t="n">
-        <v>87.09999999999999</v>
+        <v>91</v>
       </c>
       <c r="D7" t="n">
-        <v>87.2</v>
+        <v>91</v>
       </c>
       <c r="E7" t="n">
-        <v>87.09999999999999</v>
+        <v>91</v>
       </c>
       <c r="F7" t="n">
-        <v>35392.1577</v>
+        <v>5968.1841</v>
       </c>
       <c r="G7" t="n">
-        <v>89.10000000000004</v>
+        <v>65034.12710000001</v>
       </c>
       <c r="H7" t="n">
-        <v>90.23333333333339</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>87.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -696,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="C8" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="D8" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="E8" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="F8" t="n">
-        <v>8222.8097</v>
+        <v>410</v>
       </c>
       <c r="G8" t="n">
-        <v>88.8866666666667</v>
+        <v>64624.12710000001</v>
       </c>
       <c r="H8" t="n">
-        <v>90.17500000000005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>87.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,42 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="C9" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="D9" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="E9" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="F9" t="n">
-        <v>3051.0108</v>
+        <v>1664.779</v>
       </c>
       <c r="G9" t="n">
-        <v>88.67333333333336</v>
+        <v>64624.12710000001</v>
       </c>
       <c r="H9" t="n">
-        <v>90.11666666666673</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>87.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -784,42 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>87.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="C10" t="n">
-        <v>87.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="D10" t="n">
-        <v>87.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="E10" t="n">
-        <v>87.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="F10" t="n">
-        <v>824</v>
+        <v>5612.275</v>
       </c>
       <c r="G10" t="n">
-        <v>88.46666666666668</v>
+        <v>59011.85210000001</v>
       </c>
       <c r="H10" t="n">
-        <v>90.05833333333339</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>87.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -828,42 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="C11" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="D11" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="E11" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="F11" t="n">
-        <v>1733.5146</v>
+        <v>301.1709</v>
       </c>
       <c r="G11" t="n">
-        <v>88.26000000000001</v>
+        <v>59313.02300000001</v>
       </c>
       <c r="H11" t="n">
-        <v>90.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>87.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -872,42 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="C12" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="D12" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="E12" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="F12" t="n">
-        <v>127125.1236</v>
+        <v>1847.7195</v>
       </c>
       <c r="G12" t="n">
-        <v>88.05333333333333</v>
+        <v>59313.02300000001</v>
       </c>
       <c r="H12" t="n">
-        <v>89.9633333333334</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>87.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -916,40 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="C13" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="D13" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="E13" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="F13" t="n">
-        <v>1601.6671</v>
+        <v>2140.6891</v>
       </c>
       <c r="G13" t="n">
-        <v>87.84666666666665</v>
+        <v>59313.02300000001</v>
       </c>
       <c r="H13" t="n">
-        <v>89.92500000000008</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -958,40 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>87.2</v>
+        <v>90.8</v>
       </c>
       <c r="C14" t="n">
-        <v>87.2</v>
+        <v>90.8</v>
       </c>
       <c r="D14" t="n">
-        <v>87.2</v>
+        <v>90.8</v>
       </c>
       <c r="E14" t="n">
-        <v>87.2</v>
+        <v>90.8</v>
       </c>
       <c r="F14" t="n">
-        <v>165.9813</v>
+        <v>2703.0233</v>
       </c>
       <c r="G14" t="n">
-        <v>87.69333333333333</v>
+        <v>59313.02300000001</v>
       </c>
       <c r="H14" t="n">
-        <v>89.88666666666674</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1000,40 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>87.5</v>
+        <v>90.8</v>
       </c>
       <c r="C15" t="n">
-        <v>89.2</v>
+        <v>90.8</v>
       </c>
       <c r="D15" t="n">
-        <v>89.2</v>
+        <v>90.8</v>
       </c>
       <c r="E15" t="n">
-        <v>87.5</v>
+        <v>90.8</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>7865.1325</v>
       </c>
       <c r="G15" t="n">
-        <v>87.67333333333333</v>
+        <v>59313.02300000001</v>
       </c>
       <c r="H15" t="n">
-        <v>89.88166666666673</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1042,40 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="C16" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="D16" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="E16" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>8085.3931</v>
       </c>
       <c r="G16" t="n">
-        <v>87.53999999999999</v>
+        <v>51227.62990000001</v>
       </c>
       <c r="H16" t="n">
-        <v>89.83333333333341</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,40 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="C17" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="D17" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="E17" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="F17" t="n">
-        <v>5031.5039</v>
+        <v>944.0368</v>
       </c>
       <c r="G17" t="n">
-        <v>87.40666666666667</v>
+        <v>51227.62990000001</v>
       </c>
       <c r="H17" t="n">
-        <v>89.78666666666673</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,40 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>87.2</v>
+        <v>90.5</v>
       </c>
       <c r="C18" t="n">
-        <v>87.09999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="D18" t="n">
-        <v>87.2</v>
+        <v>90.5</v>
       </c>
       <c r="E18" t="n">
-        <v>87.09999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="F18" t="n">
-        <v>23515.1263</v>
+        <v>208.2215</v>
       </c>
       <c r="G18" t="n">
-        <v>87.37999999999998</v>
+        <v>51227.62990000001</v>
       </c>
       <c r="H18" t="n">
-        <v>89.74500000000008</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,42 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>87.09999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>87.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="D19" t="n">
-        <v>87.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="E19" t="n">
-        <v>87.09999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>1504.8098</v>
+        <v>9564.759400000001</v>
       </c>
       <c r="G19" t="n">
-        <v>87.35333333333331</v>
+        <v>60792.38930000001</v>
       </c>
       <c r="H19" t="n">
-        <v>89.69000000000008</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>87.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1212,40 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>86.59999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="C20" t="n">
-        <v>89</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>89</v>
+        <v>90.7</v>
       </c>
       <c r="E20" t="n">
-        <v>86.59999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>6979.5243</v>
+        <v>19600</v>
       </c>
       <c r="G20" t="n">
-        <v>87.45333333333332</v>
+        <v>41192.38930000001</v>
       </c>
       <c r="H20" t="n">
-        <v>89.66500000000009</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1254,40 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>86.5</v>
+        <v>90.8</v>
       </c>
       <c r="C21" t="n">
-        <v>86.09999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="D21" t="n">
-        <v>86.5</v>
+        <v>90.8</v>
       </c>
       <c r="E21" t="n">
-        <v>86.09999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="F21" t="n">
-        <v>13493.457</v>
+        <v>39521.0904</v>
       </c>
       <c r="G21" t="n">
-        <v>87.35999999999997</v>
+        <v>1671.298900000009</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59000000000009</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1296,40 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>87.7</v>
+        <v>90.3</v>
       </c>
       <c r="C22" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="D22" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="E22" t="n">
-        <v>87.7</v>
+        <v>90.3</v>
       </c>
       <c r="F22" t="n">
-        <v>17907.0125</v>
+        <v>406.8737</v>
       </c>
       <c r="G22" t="n">
-        <v>87.46666666666665</v>
+        <v>1671.298900000009</v>
       </c>
       <c r="H22" t="n">
-        <v>89.55500000000008</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1338,40 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="C23" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="D23" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="E23" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="F23" t="n">
-        <v>1195.4227</v>
+        <v>229.9721</v>
       </c>
       <c r="G23" t="n">
-        <v>87.57333333333332</v>
+        <v>1671.298900000009</v>
       </c>
       <c r="H23" t="n">
-        <v>89.52000000000007</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1380,40 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="C24" t="n">
-        <v>88.7</v>
+        <v>90.2</v>
       </c>
       <c r="D24" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="E24" t="n">
-        <v>88.7</v>
+        <v>90.2</v>
       </c>
       <c r="F24" t="n">
-        <v>2317.1321</v>
+        <v>544.4565</v>
       </c>
       <c r="G24" t="n">
-        <v>87.68000000000001</v>
+        <v>1126.842400000009</v>
       </c>
       <c r="H24" t="n">
-        <v>89.48500000000007</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1422,40 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>88.7</v>
+        <v>90.2</v>
       </c>
       <c r="C25" t="n">
-        <v>89.7</v>
+        <v>90.2</v>
       </c>
       <c r="D25" t="n">
-        <v>89.7</v>
+        <v>90.2</v>
       </c>
       <c r="E25" t="n">
-        <v>88.7</v>
+        <v>90.2</v>
       </c>
       <c r="F25" t="n">
-        <v>12000</v>
+        <v>706.9164</v>
       </c>
       <c r="G25" t="n">
-        <v>87.85333333333334</v>
+        <v>1126.842400000009</v>
       </c>
       <c r="H25" t="n">
-        <v>89.45666666666673</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,40 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>89.59999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="C26" t="n">
-        <v>89.7</v>
+        <v>90.2</v>
       </c>
       <c r="D26" t="n">
-        <v>89.7</v>
+        <v>90.2</v>
       </c>
       <c r="E26" t="n">
-        <v>89.59999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="F26" t="n">
-        <v>29871.4262</v>
+        <v>2754.4978</v>
       </c>
       <c r="G26" t="n">
-        <v>88.02666666666669</v>
+        <v>1126.842400000009</v>
       </c>
       <c r="H26" t="n">
-        <v>89.43500000000007</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1506,40 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>89.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="C27" t="n">
-        <v>89.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="D27" t="n">
-        <v>89.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="E27" t="n">
-        <v>89.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="F27" t="n">
-        <v>2803.2197</v>
+        <v>51.7239</v>
       </c>
       <c r="G27" t="n">
-        <v>88.16000000000003</v>
+        <v>1126.842400000009</v>
       </c>
       <c r="H27" t="n">
-        <v>89.40333333333341</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1548,40 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>89.09999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="C28" t="n">
-        <v>89.59999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="D28" t="n">
         <v>89.7</v>
       </c>
       <c r="E28" t="n">
-        <v>89.09999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="F28" t="n">
-        <v>15472.6701</v>
+        <v>15000</v>
       </c>
       <c r="G28" t="n">
-        <v>88.32666666666668</v>
+        <v>-13873.15759999999</v>
       </c>
       <c r="H28" t="n">
-        <v>89.38333333333341</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1590,40 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>89.59999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="C29" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="D29" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="E29" t="n">
-        <v>89.59999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="F29" t="n">
-        <v>6633.9726</v>
+        <v>14850</v>
       </c>
       <c r="G29" t="n">
-        <v>88.49333333333335</v>
+        <v>-13873.15759999999</v>
       </c>
       <c r="H29" t="n">
-        <v>89.36500000000007</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1632,40 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>89.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="D30" t="n">
-        <v>89.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="F30" t="n">
-        <v>10969.2092</v>
+        <v>3500</v>
       </c>
       <c r="G30" t="n">
-        <v>88.52666666666669</v>
+        <v>-13873.15759999999</v>
       </c>
       <c r="H30" t="n">
-        <v>89.34666666666674</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1674,40 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="C31" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="D31" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="E31" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="F31" t="n">
-        <v>46662.8519</v>
+        <v>15389.675</v>
       </c>
       <c r="G31" t="n">
-        <v>88.67333333333336</v>
+        <v>-13873.15759999999</v>
       </c>
       <c r="H31" t="n">
-        <v>89.32833333333339</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1716,40 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="C32" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="D32" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="E32" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="F32" t="n">
-        <v>3200</v>
+        <v>27815.4745</v>
       </c>
       <c r="G32" t="n">
-        <v>88.82000000000002</v>
+        <v>-41688.63209999999</v>
       </c>
       <c r="H32" t="n">
-        <v>89.31000000000004</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1758,40 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="C33" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="D33" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="E33" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="F33" t="n">
-        <v>14650</v>
+        <v>8948.860199999999</v>
       </c>
       <c r="G33" t="n">
-        <v>88.99333333333337</v>
+        <v>-41688.63209999999</v>
       </c>
       <c r="H33" t="n">
-        <v>89.29166666666671</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1800,40 +1553,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="C34" t="n">
-        <v>93.5</v>
+        <v>87.5</v>
       </c>
       <c r="D34" t="n">
-        <v>93.5</v>
+        <v>87.5</v>
       </c>
       <c r="E34" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="F34" t="n">
-        <v>106714.903</v>
+        <v>5278.6957</v>
       </c>
       <c r="G34" t="n">
-        <v>89.42000000000004</v>
+        <v>-41688.63209999999</v>
       </c>
       <c r="H34" t="n">
-        <v>89.33333333333339</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>87.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>87.5</v>
+      </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1842,40 +1592,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>93.5</v>
+        <v>87.5</v>
       </c>
       <c r="C35" t="n">
-        <v>98</v>
+        <v>87.5</v>
       </c>
       <c r="D35" t="n">
-        <v>98</v>
+        <v>87.5</v>
       </c>
       <c r="E35" t="n">
-        <v>93.5</v>
+        <v>87.5</v>
       </c>
       <c r="F35" t="n">
-        <v>106870.1512606122</v>
+        <v>70</v>
       </c>
       <c r="G35" t="n">
-        <v>90.02000000000004</v>
+        <v>-41688.63209999999</v>
       </c>
       <c r="H35" t="n">
-        <v>89.45000000000005</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1884,40 +1635,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>93</v>
+        <v>87.2</v>
       </c>
       <c r="C36" t="n">
-        <v>95.90000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>98</v>
+        <v>87.2</v>
       </c>
       <c r="E36" t="n">
         <v>87.09999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>81402.0727</v>
+        <v>35392.1577</v>
       </c>
       <c r="G36" t="n">
-        <v>90.67333333333339</v>
+        <v>-77080.7898</v>
       </c>
       <c r="H36" t="n">
-        <v>89.5216666666667</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1926,40 +1678,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>95.90000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>96</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>6039.6149</v>
+        <v>8222.8097</v>
       </c>
       <c r="G37" t="n">
-        <v>91.02666666666671</v>
+        <v>-77080.7898</v>
       </c>
       <c r="H37" t="n">
-        <v>89.5716666666667</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K37" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1968,40 +1721,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>95</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>95</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>3051.0108</v>
       </c>
       <c r="G38" t="n">
-        <v>91.44666666666672</v>
+        <v>-77080.7898</v>
       </c>
       <c r="H38" t="n">
-        <v>89.63833333333336</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K38" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2010,40 +1764,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>637.2179</v>
+        <v>824</v>
       </c>
       <c r="G39" t="n">
-        <v>91.80000000000004</v>
+        <v>-77080.7898</v>
       </c>
       <c r="H39" t="n">
-        <v>89.69166666666669</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K39" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2052,40 +1807,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>92.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>93.7</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>94.8</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>91.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>31994.7605</v>
+        <v>1733.5146</v>
       </c>
       <c r="G40" t="n">
-        <v>92.06666666666671</v>
+        <v>-77080.7898</v>
       </c>
       <c r="H40" t="n">
-        <v>89.74000000000002</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K40" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,40 +1850,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>94.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>94.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>94.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>93.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>5072.604</v>
+        <v>127125.1236</v>
       </c>
       <c r="G41" t="n">
-        <v>92.39333333333337</v>
+        <v>-77080.7898</v>
       </c>
       <c r="H41" t="n">
-        <v>89.80500000000004</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K41" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2136,40 +1893,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>93.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>94.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>94.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>93.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>2896.0235</v>
+        <v>1601.6671</v>
       </c>
       <c r="G42" t="n">
-        <v>92.76000000000003</v>
+        <v>-77080.7898</v>
       </c>
       <c r="H42" t="n">
-        <v>89.86833333333337</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2178,40 +1934,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>92.5</v>
+        <v>87.2</v>
       </c>
       <c r="C43" t="n">
-        <v>92.5</v>
+        <v>87.2</v>
       </c>
       <c r="D43" t="n">
-        <v>92.5</v>
+        <v>87.2</v>
       </c>
       <c r="E43" t="n">
-        <v>92.5</v>
+        <v>87.2</v>
       </c>
       <c r="F43" t="n">
-        <v>21</v>
+        <v>165.9813</v>
       </c>
       <c r="G43" t="n">
-        <v>92.95333333333338</v>
+        <v>-76914.8085</v>
       </c>
       <c r="H43" t="n">
-        <v>89.8966666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2220,40 +1975,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>92.5</v>
+        <v>87.5</v>
       </c>
       <c r="C44" t="n">
-        <v>92.5</v>
+        <v>89.2</v>
       </c>
       <c r="D44" t="n">
-        <v>92.5</v>
+        <v>89.2</v>
       </c>
       <c r="E44" t="n">
-        <v>90.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="F44" t="n">
-        <v>19155.8656</v>
+        <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>93.14000000000004</v>
+        <v>-76903.8085</v>
       </c>
       <c r="H44" t="n">
-        <v>89.92500000000003</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,40 +2016,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>94.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="C45" t="n">
-        <v>94.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="D45" t="n">
-        <v>94.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="E45" t="n">
-        <v>94.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="F45" t="n">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>93.43333333333337</v>
+        <v>-76914.8085</v>
       </c>
       <c r="H45" t="n">
-        <v>89.98000000000003</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2304,40 +2057,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>93.7</v>
+        <v>87.5</v>
       </c>
       <c r="C46" t="n">
-        <v>93.7</v>
+        <v>87.5</v>
       </c>
       <c r="D46" t="n">
-        <v>93.7</v>
+        <v>87.5</v>
       </c>
       <c r="E46" t="n">
-        <v>92</v>
+        <v>87.5</v>
       </c>
       <c r="F46" t="n">
-        <v>8885</v>
+        <v>5031.5039</v>
       </c>
       <c r="G46" t="n">
-        <v>93.70000000000003</v>
+        <v>-76914.8085</v>
       </c>
       <c r="H46" t="n">
-        <v>90.02833333333336</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2346,40 +2098,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>92.5</v>
+        <v>87.2</v>
       </c>
       <c r="C47" t="n">
-        <v>93</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>93</v>
+        <v>87.2</v>
       </c>
       <c r="E47" t="n">
-        <v>92.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>14300</v>
+        <v>23515.1263</v>
       </c>
       <c r="G47" t="n">
-        <v>93.92000000000003</v>
+        <v>-100429.9348</v>
       </c>
       <c r="H47" t="n">
-        <v>90.07000000000002</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2388,40 +2139,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>93</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>93</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>93</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>93</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>500</v>
+        <v>1504.8098</v>
       </c>
       <c r="G48" t="n">
-        <v>94.14000000000003</v>
+        <v>-100429.9348</v>
       </c>
       <c r="H48" t="n">
-        <v>90.11166666666669</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K48" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2430,40 +2182,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>93.40000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D49" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E49" t="n">
-        <v>93.40000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>19001.6308</v>
+        <v>6979.5243</v>
       </c>
       <c r="G49" t="n">
-        <v>94.17333333333336</v>
+        <v>-93450.4105</v>
       </c>
       <c r="H49" t="n">
-        <v>90.17000000000003</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K49" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2472,40 +2225,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>93.90000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="C50" t="n">
-        <v>94</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>94</v>
+        <v>86.5</v>
       </c>
       <c r="E50" t="n">
-        <v>93.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>6817.8834</v>
+        <v>13493.457</v>
       </c>
       <c r="G50" t="n">
-        <v>93.90666666666669</v>
+        <v>-106943.8675</v>
       </c>
       <c r="H50" t="n">
-        <v>90.22500000000004</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+        <v>89</v>
+      </c>
+      <c r="K50" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,40 +2268,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>94</v>
+        <v>87.7</v>
       </c>
       <c r="C51" t="n">
-        <v>94.90000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="D51" t="n">
-        <v>94.90000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="E51" t="n">
-        <v>93.3</v>
+        <v>87.7</v>
       </c>
       <c r="F51" t="n">
-        <v>25166.6182</v>
+        <v>17907.0125</v>
       </c>
       <c r="G51" t="n">
-        <v>93.84000000000002</v>
+        <v>-89036.855</v>
       </c>
       <c r="H51" t="n">
-        <v>90.29666666666668</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2556,40 +2309,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>95</v>
+        <v>88.7</v>
       </c>
       <c r="C52" t="n">
-        <v>94.90000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="D52" t="n">
-        <v>95</v>
+        <v>88.7</v>
       </c>
       <c r="E52" t="n">
-        <v>94.59999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="F52" t="n">
-        <v>2838.8907</v>
+        <v>1195.4227</v>
       </c>
       <c r="G52" t="n">
-        <v>93.90000000000003</v>
+        <v>-89036.855</v>
       </c>
       <c r="H52" t="n">
-        <v>90.37333333333335</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2598,76 +2350,80 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>94.5</v>
+        <v>88.7</v>
       </c>
       <c r="C53" t="n">
-        <v>91.3</v>
+        <v>88.7</v>
       </c>
       <c r="D53" t="n">
-        <v>94.5</v>
+        <v>88.7</v>
       </c>
       <c r="E53" t="n">
-        <v>91.2</v>
+        <v>88.7</v>
       </c>
       <c r="F53" t="n">
-        <v>33691.4608</v>
+        <v>2317.1321</v>
       </c>
       <c r="G53" t="n">
-        <v>93.65333333333336</v>
+        <v>-89036.855</v>
       </c>
       <c r="H53" t="n">
-        <v>90.39000000000001</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>92</v>
+        <v>88.7</v>
       </c>
       <c r="C54" t="n">
-        <v>94.8</v>
+        <v>89.7</v>
       </c>
       <c r="D54" t="n">
-        <v>94.8</v>
+        <v>89.7</v>
       </c>
       <c r="E54" t="n">
-        <v>91.8</v>
+        <v>88.7</v>
       </c>
       <c r="F54" t="n">
-        <v>31410.2933</v>
+        <v>12000</v>
       </c>
       <c r="G54" t="n">
-        <v>93.70666666666669</v>
+        <v>-77036.855</v>
       </c>
       <c r="H54" t="n">
-        <v>90.465</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2676,36 +2432,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>94.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>92.40000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="D55" t="n">
-        <v>94.2</v>
+        <v>89.7</v>
       </c>
       <c r="E55" t="n">
-        <v>92.40000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>3951.9624</v>
+        <v>29871.4262</v>
       </c>
       <c r="G55" t="n">
-        <v>93.62000000000003</v>
+        <v>-77036.855</v>
       </c>
       <c r="H55" t="n">
-        <v>90.50166666666668</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2714,36 +2473,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>92.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>92.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>92.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>92.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>5797.3657</v>
+        <v>2803.2197</v>
       </c>
       <c r="G56" t="n">
-        <v>93.46000000000004</v>
+        <v>-79840.0747</v>
       </c>
       <c r="H56" t="n">
-        <v>90.53500000000001</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2752,36 +2514,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>92.09999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>91.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>92.09999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="E57" t="n">
-        <v>91.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>1286.2465</v>
+        <v>15472.6701</v>
       </c>
       <c r="G57" t="n">
-        <v>93.25333333333337</v>
+        <v>-64367.40459999999</v>
       </c>
       <c r="H57" t="n">
-        <v>90.55666666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2790,36 +2555,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>93.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>94.09999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="D58" t="n">
-        <v>94.09999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="E58" t="n">
-        <v>93.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>9700</v>
+        <v>6633.9726</v>
       </c>
       <c r="G58" t="n">
-        <v>93.36000000000004</v>
+        <v>-57733.43199999999</v>
       </c>
       <c r="H58" t="n">
-        <v>90.62166666666668</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,36 +2596,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="C59" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="D59" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="E59" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="F59" t="n">
-        <v>319.8662</v>
+        <v>10969.2092</v>
       </c>
       <c r="G59" t="n">
-        <v>93.32000000000004</v>
+        <v>-57733.43199999999</v>
       </c>
       <c r="H59" t="n">
-        <v>90.66166666666668</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2866,36 +2637,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>92.3</v>
+        <v>89.7</v>
       </c>
       <c r="C60" t="n">
-        <v>92</v>
+        <v>89.7</v>
       </c>
       <c r="D60" t="n">
-        <v>92.3</v>
+        <v>89.7</v>
       </c>
       <c r="E60" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="F60" t="n">
-        <v>18408.2176</v>
+        <v>46662.8519</v>
       </c>
       <c r="G60" t="n">
-        <v>93.18000000000005</v>
+        <v>-57733.43199999999</v>
       </c>
       <c r="H60" t="n">
-        <v>90.70333333333335</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2904,36 +2678,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="C61" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="D61" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="E61" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="F61" t="n">
-        <v>10395.9169</v>
+        <v>3200</v>
       </c>
       <c r="G61" t="n">
-        <v>93.06000000000004</v>
+        <v>-57733.43199999999</v>
       </c>
       <c r="H61" t="n">
-        <v>90.74333333333334</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2942,36 +2719,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="C62" t="n">
-        <v>93</v>
+        <v>89.7</v>
       </c>
       <c r="D62" t="n">
-        <v>93</v>
+        <v>89.7</v>
       </c>
       <c r="E62" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="F62" t="n">
-        <v>8215.265100000001</v>
+        <v>14650</v>
       </c>
       <c r="G62" t="n">
-        <v>93.06000000000004</v>
+        <v>-57733.43199999999</v>
       </c>
       <c r="H62" t="n">
-        <v>90.80166666666668</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2980,36 +2760,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="C63" t="n">
-        <v>93.8</v>
+        <v>93.5</v>
       </c>
       <c r="D63" t="n">
-        <v>93.8</v>
+        <v>93.5</v>
       </c>
       <c r="E63" t="n">
-        <v>91.09999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="F63" t="n">
-        <v>14344.0441</v>
+        <v>106714.903</v>
       </c>
       <c r="G63" t="n">
-        <v>93.11333333333339</v>
+        <v>48981.47100000001</v>
       </c>
       <c r="H63" t="n">
-        <v>90.90666666666668</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3018,36 +2801,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>93.7</v>
+        <v>93.5</v>
       </c>
       <c r="C64" t="n">
-        <v>93.7</v>
+        <v>98</v>
       </c>
       <c r="D64" t="n">
-        <v>93.7</v>
+        <v>98</v>
       </c>
       <c r="E64" t="n">
-        <v>93.7</v>
+        <v>93.5</v>
       </c>
       <c r="F64" t="n">
-        <v>521.398</v>
+        <v>106870.1512606122</v>
       </c>
       <c r="G64" t="n">
-        <v>93.09333333333339</v>
+        <v>155851.6222606122</v>
       </c>
       <c r="H64" t="n">
-        <v>91.01000000000001</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,36 +2842,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>91.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="C65" t="n">
-        <v>91.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>91.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="E65" t="n">
-        <v>91.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>1000</v>
+        <v>81402.0727</v>
       </c>
       <c r="G65" t="n">
-        <v>92.90000000000005</v>
+        <v>74449.5495606122</v>
       </c>
       <c r="H65" t="n">
-        <v>91.07000000000001</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3094,36 +2883,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>90.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>90.3</v>
+        <v>94</v>
       </c>
       <c r="D66" t="n">
-        <v>90.3</v>
+        <v>96</v>
       </c>
       <c r="E66" t="n">
-        <v>90.3</v>
+        <v>94</v>
       </c>
       <c r="F66" t="n">
-        <v>442.967</v>
+        <v>6039.6149</v>
       </c>
       <c r="G66" t="n">
-        <v>92.59333333333338</v>
+        <v>68409.9346606122</v>
       </c>
       <c r="H66" t="n">
-        <v>91.11666666666669</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3132,36 +2924,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>90.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="C67" t="n">
-        <v>90.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="D67" t="n">
-        <v>90.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="E67" t="n">
-        <v>90.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="F67" t="n">
-        <v>2273.6593</v>
+        <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>92.27333333333335</v>
+        <v>68420.9346606122</v>
       </c>
       <c r="H67" t="n">
-        <v>91.16666666666669</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3170,36 +2965,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>90.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="C68" t="n">
-        <v>89.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="D68" t="n">
-        <v>90.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="E68" t="n">
-        <v>89.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="F68" t="n">
-        <v>19623.2164</v>
+        <v>637.2179</v>
       </c>
       <c r="G68" t="n">
-        <v>92.16000000000003</v>
+        <v>67783.71676061219</v>
       </c>
       <c r="H68" t="n">
-        <v>91.20833333333334</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3208,36 +3006,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>90.90000000000001</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>90.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="D69" t="n">
-        <v>90.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="E69" t="n">
-        <v>90.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>1418.5258</v>
+        <v>31994.7605</v>
       </c>
       <c r="G69" t="n">
-        <v>91.90000000000003</v>
+        <v>35788.95626061219</v>
       </c>
       <c r="H69" t="n">
-        <v>91.27166666666668</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3246,36 +3047,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>90.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C70" t="n">
-        <v>89.59999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>90.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>89.59999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>3328.8619</v>
+        <v>5072.604</v>
       </c>
       <c r="G70" t="n">
-        <v>91.71333333333335</v>
+        <v>40861.56026061219</v>
       </c>
       <c r="H70" t="n">
-        <v>91.31333333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3284,36 +3088,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>89.59999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>89.59999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>89.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>89.59999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>19153.984</v>
+        <v>2896.0235</v>
       </c>
       <c r="G71" t="n">
-        <v>91.54000000000001</v>
+        <v>40861.56026061219</v>
       </c>
       <c r="H71" t="n">
-        <v>91.355</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3322,36 +3129,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>89.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="C72" t="n">
-        <v>89.7</v>
+        <v>92.5</v>
       </c>
       <c r="D72" t="n">
-        <v>89.7</v>
+        <v>92.5</v>
       </c>
       <c r="E72" t="n">
-        <v>89.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="F72" t="n">
-        <v>5546.219</v>
+        <v>21</v>
       </c>
       <c r="G72" t="n">
-        <v>91.42000000000002</v>
+        <v>40840.56026061219</v>
       </c>
       <c r="H72" t="n">
-        <v>91.39833333333333</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3360,36 +3170,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>89.7</v>
+        <v>92.5</v>
       </c>
       <c r="C73" t="n">
-        <v>89.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="D73" t="n">
-        <v>89.7</v>
+        <v>92.5</v>
       </c>
       <c r="E73" t="n">
-        <v>89.59999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>28492.8325</v>
+        <v>19155.8656</v>
       </c>
       <c r="G73" t="n">
-        <v>91.12000000000002</v>
+        <v>40840.56026061219</v>
       </c>
       <c r="H73" t="n">
-        <v>91.44</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3398,36 +3211,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>89.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>89.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>89.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>89.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>9196.025299999999</v>
+        <v>110</v>
       </c>
       <c r="G74" t="n">
-        <v>90.96666666666667</v>
+        <v>40950.56026061219</v>
       </c>
       <c r="H74" t="n">
-        <v>91.48</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,36 +3252,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>89.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="C75" t="n">
-        <v>89.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="D75" t="n">
-        <v>89.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="E75" t="n">
-        <v>89.59999999999999</v>
+        <v>92</v>
       </c>
       <c r="F75" t="n">
-        <v>15014.1757</v>
+        <v>8885</v>
       </c>
       <c r="G75" t="n">
-        <v>90.80666666666666</v>
+        <v>32065.56026061219</v>
       </c>
       <c r="H75" t="n">
-        <v>91.48666666666668</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,36 +3293,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>89.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="C76" t="n">
-        <v>89.59999999999999</v>
+        <v>93</v>
       </c>
       <c r="D76" t="n">
-        <v>89.59999999999999</v>
+        <v>93</v>
       </c>
       <c r="E76" t="n">
-        <v>89.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="F76" t="n">
-        <v>5043.8386</v>
+        <v>14300</v>
       </c>
       <c r="G76" t="n">
-        <v>90.65333333333332</v>
+        <v>17765.56026061219</v>
       </c>
       <c r="H76" t="n">
-        <v>91.52166666666669</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3512,36 +3334,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>89.7</v>
+        <v>93</v>
       </c>
       <c r="C77" t="n">
-        <v>89.7</v>
+        <v>93</v>
       </c>
       <c r="D77" t="n">
-        <v>89.7</v>
+        <v>93</v>
       </c>
       <c r="E77" t="n">
-        <v>89.7</v>
+        <v>93</v>
       </c>
       <c r="F77" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G77" t="n">
-        <v>90.43333333333332</v>
+        <v>17765.56026061219</v>
       </c>
       <c r="H77" t="n">
-        <v>91.55833333333335</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3550,36 +3375,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>89.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>89.7</v>
+        <v>94</v>
       </c>
       <c r="D78" t="n">
-        <v>89.7</v>
+        <v>94</v>
       </c>
       <c r="E78" t="n">
-        <v>89.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>1000</v>
+        <v>19001.6308</v>
       </c>
       <c r="G78" t="n">
-        <v>90.16</v>
+        <v>36767.19106061219</v>
       </c>
       <c r="H78" t="n">
-        <v>91.60166666666667</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3588,36 +3416,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>91.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>93.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="D79" t="n">
-        <v>93.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="E79" t="n">
-        <v>91.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>25815.753</v>
+        <v>6817.8834</v>
       </c>
       <c r="G79" t="n">
-        <v>90.11999999999998</v>
+        <v>36767.19106061219</v>
       </c>
       <c r="H79" t="n">
-        <v>91.70166666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3626,36 +3457,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>91.8</v>
+        <v>94</v>
       </c>
       <c r="C80" t="n">
-        <v>91.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>91.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>91.7</v>
+        <v>93.3</v>
       </c>
       <c r="F80" t="n">
-        <v>46984.70421742919</v>
+        <v>25166.6182</v>
       </c>
       <c r="G80" t="n">
-        <v>90.16666666666666</v>
+        <v>61933.80926061219</v>
       </c>
       <c r="H80" t="n">
-        <v>91.74833333333335</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3664,36 +3498,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>91.8</v>
+        <v>95</v>
       </c>
       <c r="C81" t="n">
-        <v>91.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>91.8</v>
+        <v>95</v>
       </c>
       <c r="E81" t="n">
-        <v>91.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>3742.8318</v>
+        <v>2838.8907</v>
       </c>
       <c r="G81" t="n">
-        <v>90.26666666666665</v>
+        <v>61933.80926061219</v>
       </c>
       <c r="H81" t="n">
-        <v>91.84333333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,36 +3539,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>90.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C82" t="n">
-        <v>90.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="D82" t="n">
-        <v>90.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E82" t="n">
-        <v>90.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="F82" t="n">
-        <v>6400</v>
+        <v>33691.4608</v>
       </c>
       <c r="G82" t="n">
-        <v>90.26666666666665</v>
+        <v>28242.34846061219</v>
       </c>
       <c r="H82" t="n">
-        <v>91.86666666666669</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3740,36 +3580,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C83" t="n">
-        <v>90</v>
+        <v>94.8</v>
       </c>
       <c r="D83" t="n">
-        <v>90</v>
+        <v>94.8</v>
       </c>
       <c r="E83" t="n">
-        <v>90</v>
+        <v>91.8</v>
       </c>
       <c r="F83" t="n">
-        <v>2000</v>
+        <v>31410.2933</v>
       </c>
       <c r="G83" t="n">
-        <v>90.29333333333332</v>
+        <v>59652.6417606122</v>
       </c>
       <c r="H83" t="n">
-        <v>91.88833333333335</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3778,36 +3621,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>89.90000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="C84" t="n">
-        <v>91.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>91.3</v>
+        <v>94.2</v>
       </c>
       <c r="E84" t="n">
-        <v>89.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>5293.2208</v>
+        <v>3951.9624</v>
       </c>
       <c r="G84" t="n">
-        <v>90.31999999999998</v>
+        <v>55700.6793606122</v>
       </c>
       <c r="H84" t="n">
-        <v>91.93166666666669</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,36 +3662,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>91.3</v>
+        <v>92.5</v>
       </c>
       <c r="C85" t="n">
-        <v>91.7</v>
+        <v>92.2</v>
       </c>
       <c r="D85" t="n">
-        <v>91.7</v>
+        <v>92.5</v>
       </c>
       <c r="E85" t="n">
-        <v>91.3</v>
+        <v>92.2</v>
       </c>
       <c r="F85" t="n">
-        <v>13600</v>
+        <v>5797.3657</v>
       </c>
       <c r="G85" t="n">
-        <v>90.45999999999999</v>
+        <v>49903.3136606122</v>
       </c>
       <c r="H85" t="n">
-        <v>91.96500000000002</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3854,36 +3703,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>91.7</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>91.8</v>
+        <v>91.5</v>
       </c>
       <c r="D86" t="n">
-        <v>91.8</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="F86" t="n">
-        <v>30254.11798257081</v>
+        <v>1286.2465</v>
       </c>
       <c r="G86" t="n">
-        <v>90.60666666666665</v>
+        <v>48617.0671606122</v>
       </c>
       <c r="H86" t="n">
-        <v>92.00000000000003</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3892,36 +3744,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>92.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>92.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>9700</v>
       </c>
       <c r="G87" t="n">
-        <v>90.81333333333332</v>
+        <v>58317.0671606122</v>
       </c>
       <c r="H87" t="n">
-        <v>92.0616666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3930,36 +3785,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>92.8</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>93.3</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>93.3</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>92.8</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>7061.5647</v>
+        <v>319.8662</v>
       </c>
       <c r="G88" t="n">
-        <v>91.05999999999999</v>
+        <v>57997.2009606122</v>
       </c>
       <c r="H88" t="n">
-        <v>92.12333333333336</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,36 +3826,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>91.7</v>
+        <v>92.3</v>
       </c>
       <c r="C89" t="n">
-        <v>90.2</v>
+        <v>92</v>
       </c>
       <c r="D89" t="n">
-        <v>91.7</v>
+        <v>92.3</v>
       </c>
       <c r="E89" t="n">
-        <v>90.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>15968.1528</v>
+        <v>18408.2176</v>
       </c>
       <c r="G89" t="n">
-        <v>91.09999999999999</v>
+        <v>76405.4185606122</v>
       </c>
       <c r="H89" t="n">
-        <v>92.13166666666669</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4006,36 +3867,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>90.3</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>93.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>93.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>90.3</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>3100</v>
+        <v>10395.9169</v>
       </c>
       <c r="G90" t="n">
-        <v>91.33333333333333</v>
+        <v>66009.50166061221</v>
       </c>
       <c r="H90" t="n">
-        <v>92.18833333333336</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4044,36 +3908,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>93.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="D91" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="E91" t="n">
-        <v>93.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>2525.4564</v>
+        <v>8215.265100000001</v>
       </c>
       <c r="G91" t="n">
-        <v>91.56666666666666</v>
+        <v>74224.76676061221</v>
       </c>
       <c r="H91" t="n">
-        <v>92.24500000000005</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4082,36 +3949,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>93.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>90.3</v>
+        <v>93.8</v>
       </c>
       <c r="D92" t="n">
-        <v>93.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="E92" t="n">
-        <v>90.3</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>9811.9709</v>
+        <v>14344.0441</v>
       </c>
       <c r="G92" t="n">
-        <v>91.60666666666665</v>
+        <v>88568.81086061221</v>
       </c>
       <c r="H92" t="n">
-        <v>92.25500000000005</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,36 +3990,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>93.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="C93" t="n">
-        <v>90.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="D93" t="n">
-        <v>93.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="E93" t="n">
-        <v>90.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="F93" t="n">
-        <v>3514.282</v>
+        <v>521.398</v>
       </c>
       <c r="G93" t="n">
-        <v>91.65333333333334</v>
+        <v>88047.41286061221</v>
       </c>
       <c r="H93" t="n">
-        <v>92.26666666666671</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,36 +4031,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>90.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>93</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>93</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>90.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>693.5757</v>
+        <v>1000</v>
       </c>
       <c r="G94" t="n">
-        <v>91.64666666666668</v>
+        <v>87047.41286061221</v>
       </c>
       <c r="H94" t="n">
-        <v>92.25833333333338</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4196,36 +4072,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>93</v>
+        <v>90.3</v>
       </c>
       <c r="C95" t="n">
-        <v>90.59999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="D95" t="n">
-        <v>93</v>
+        <v>90.3</v>
       </c>
       <c r="E95" t="n">
-        <v>90.59999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="F95" t="n">
-        <v>1955.9026</v>
+        <v>442.967</v>
       </c>
       <c r="G95" t="n">
-        <v>91.56666666666666</v>
+        <v>86604.44586061221</v>
       </c>
       <c r="H95" t="n">
-        <v>92.13500000000005</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4234,36 +4113,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>93</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>90.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>93</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>90.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>1162.0967</v>
+        <v>2273.6593</v>
       </c>
       <c r="G96" t="n">
-        <v>91.46000000000001</v>
+        <v>84330.78656061221</v>
       </c>
       <c r="H96" t="n">
-        <v>92.04000000000005</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4272,36 +4154,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>93</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>93</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>93</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>93</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>149.3956</v>
+        <v>19623.2164</v>
       </c>
       <c r="G97" t="n">
-        <v>91.65333333333335</v>
+        <v>64707.5701606122</v>
       </c>
       <c r="H97" t="n">
-        <v>92.02333333333338</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4310,36 +4195,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>93</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>93</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>93</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>93</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>318.4462</v>
+        <v>1418.5258</v>
       </c>
       <c r="G98" t="n">
-        <v>91.85333333333334</v>
+        <v>66126.09596061221</v>
       </c>
       <c r="H98" t="n">
-        <v>91.99000000000005</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4348,36 +4236,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>92.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>92.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>79.78440000000001</v>
+        <v>3328.8619</v>
       </c>
       <c r="G99" t="n">
-        <v>91.95333333333335</v>
+        <v>62797.2340606122</v>
       </c>
       <c r="H99" t="n">
-        <v>91.97000000000006</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,36 +4277,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>92.8</v>
+        <v>89.7</v>
       </c>
       <c r="E100" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>59.8383</v>
+        <v>19153.984</v>
       </c>
       <c r="G100" t="n">
-        <v>92.02666666666667</v>
+        <v>62797.2340606122</v>
       </c>
       <c r="H100" t="n">
-        <v>91.95500000000007</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4424,36 +4318,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>92.8</v>
+        <v>89.7</v>
       </c>
       <c r="D101" t="n">
-        <v>92.8</v>
+        <v>89.7</v>
       </c>
       <c r="E101" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>44.8787</v>
+        <v>5546.219</v>
       </c>
       <c r="G101" t="n">
-        <v>92.09333333333333</v>
+        <v>68343.4530606122</v>
       </c>
       <c r="H101" t="n">
-        <v>91.92500000000005</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4462,36 +4359,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>92.8</v>
+        <v>89.7</v>
       </c>
       <c r="C102" t="n">
-        <v>90.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>92.8</v>
+        <v>89.7</v>
       </c>
       <c r="E102" t="n">
-        <v>90.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>394.227</v>
+        <v>28492.8325</v>
       </c>
       <c r="G102" t="n">
-        <v>91.92000000000002</v>
+        <v>39850.62056061219</v>
       </c>
       <c r="H102" t="n">
-        <v>91.85166666666672</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4500,36 +4400,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>32.8189</v>
+        <v>9196.025299999999</v>
       </c>
       <c r="G103" t="n">
-        <v>91.88666666666668</v>
+        <v>39850.62056061219</v>
       </c>
       <c r="H103" t="n">
-        <v>91.85666666666673</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4538,36 +4441,1132 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="C104" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="D104" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="E104" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="F104" t="n">
+        <v>15014.1757</v>
+      </c>
+      <c r="G104" t="n">
+        <v>39850.62056061219</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="C105" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="D105" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="E105" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="F105" t="n">
+        <v>5043.8386</v>
+      </c>
+      <c r="G105" t="n">
+        <v>39850.62056061219</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C106" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D106" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E106" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>250</v>
+      </c>
+      <c r="G106" t="n">
+        <v>40100.62056061219</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C107" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E107" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G107" t="n">
+        <v>40100.62056061219</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="C108" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="D108" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E108" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F108" t="n">
+        <v>25815.753</v>
+      </c>
+      <c r="G108" t="n">
+        <v>65916.37356061219</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="C109" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="D109" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E109" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="F109" t="n">
+        <v>46984.70421742919</v>
+      </c>
+      <c r="G109" t="n">
+        <v>18931.669343183</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="C110" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="D110" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E110" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3742.8318</v>
+      </c>
+      <c r="G110" t="n">
+        <v>18931.669343183</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C111" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D111" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E111" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F111" t="n">
+        <v>6400</v>
+      </c>
+      <c r="G111" t="n">
+        <v>12531.669343183</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>90</v>
+      </c>
+      <c r="C112" t="n">
+        <v>90</v>
+      </c>
+      <c r="D112" t="n">
+        <v>90</v>
+      </c>
+      <c r="E112" t="n">
+        <v>90</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G112" t="n">
+        <v>10531.669343183</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="C113" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5293.2208</v>
+      </c>
+      <c r="G113" t="n">
+        <v>15824.890143183</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="D114" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="E114" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>13600</v>
+      </c>
+      <c r="G114" t="n">
+        <v>29424.890143183</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="C115" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="D115" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E115" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="F115" t="n">
+        <v>30254.11798257081</v>
+      </c>
+      <c r="G115" t="n">
+        <v>59679.00812575381</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C116" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E116" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>100</v>
+      </c>
+      <c r="G116" t="n">
+        <v>59779.00812575381</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C117" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F117" t="n">
+        <v>7061.5647</v>
+      </c>
+      <c r="G117" t="n">
+        <v>66840.57282575381</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1.061285714285714</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="C118" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15968.1528</v>
+      </c>
+      <c r="G118" t="n">
+        <v>50872.42002575382</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="C119" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="D119" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E119" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3100</v>
+      </c>
+      <c r="G119" t="n">
+        <v>53972.42002575382</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="C120" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="D120" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E120" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2525.4564</v>
+      </c>
+      <c r="G120" t="n">
+        <v>53972.42002575382</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="C121" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="D121" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E121" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="F121" t="n">
+        <v>9811.9709</v>
+      </c>
+      <c r="G121" t="n">
+        <v>44160.44912575382</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="C122" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D122" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E122" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3514.282</v>
+      </c>
+      <c r="G122" t="n">
+        <v>47674.73112575382</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="C123" t="n">
+        <v>93</v>
+      </c>
+      <c r="D123" t="n">
+        <v>93</v>
+      </c>
+      <c r="E123" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="F123" t="n">
+        <v>693.5757</v>
+      </c>
+      <c r="G123" t="n">
+        <v>48368.30682575382</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>93</v>
+      </c>
+      <c r="C124" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="D124" t="n">
+        <v>93</v>
+      </c>
+      <c r="E124" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1955.9026</v>
+      </c>
+      <c r="G124" t="n">
+        <v>46412.40422575382</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>93</v>
+      </c>
+      <c r="C125" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D125" t="n">
+        <v>93</v>
+      </c>
+      <c r="E125" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1162.0967</v>
+      </c>
+      <c r="G125" t="n">
+        <v>45250.30752575381</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>93</v>
+      </c>
+      <c r="C126" t="n">
+        <v>93</v>
+      </c>
+      <c r="D126" t="n">
+        <v>93</v>
+      </c>
+      <c r="E126" t="n">
+        <v>93</v>
+      </c>
+      <c r="F126" t="n">
+        <v>149.3956</v>
+      </c>
+      <c r="G126" t="n">
+        <v>45399.70312575382</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>93</v>
+      </c>
+      <c r="C127" t="n">
+        <v>93</v>
+      </c>
+      <c r="D127" t="n">
+        <v>93</v>
+      </c>
+      <c r="E127" t="n">
+        <v>93</v>
+      </c>
+      <c r="F127" t="n">
+        <v>318.4462</v>
+      </c>
+      <c r="G127" t="n">
+        <v>45399.70312575382</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>79.78440000000001</v>
+      </c>
+      <c r="G128" t="n">
+        <v>45319.91872575382</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>59.8383</v>
+      </c>
+      <c r="G129" t="n">
+        <v>45319.91872575382</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>44.8787</v>
+      </c>
+      <c r="G130" t="n">
+        <v>45319.91872575382</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C131" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>394.227</v>
+      </c>
+      <c r="G131" t="n">
+        <v>44925.69172575382</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>32.8189</v>
+      </c>
+      <c r="G132" t="n">
+        <v>44958.51062575382</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="C133" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="D133" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="E133" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="F133" t="n">
         <v>99.6554</v>
       </c>
-      <c r="G104" t="n">
-        <v>91.88000000000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>91.81666666666673</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="G133" t="n">
+        <v>44858.85522575382</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest CTXC.xlsx
+++ b/BackTest/2019-10-30 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M133"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>604.5505000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>66894.46970000002</v>
+        <v>90.56499999999998</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>1073.2601</v>
       </c>
       <c r="G3" t="n">
-        <v>67967.72980000002</v>
+        <v>90.63999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>2129.2448</v>
       </c>
       <c r="G4" t="n">
-        <v>67967.72980000002</v>
+        <v>90.71499999999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>166.3973</v>
       </c>
       <c r="G5" t="n">
-        <v>68134.12710000001</v>
+        <v>90.77499999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,13 +597,13 @@
         <v>3100</v>
       </c>
       <c r="G6" t="n">
-        <v>65034.12710000001</v>
+        <v>90.80999999999997</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,13 +633,13 @@
         <v>5968.1841</v>
       </c>
       <c r="G7" t="n">
-        <v>65034.12710000001</v>
+        <v>90.87999999999998</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,13 +669,13 @@
         <v>410</v>
       </c>
       <c r="G8" t="n">
-        <v>64624.12710000001</v>
+        <v>90.89999999999998</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,13 +705,13 @@
         <v>1664.779</v>
       </c>
       <c r="G9" t="n">
-        <v>64624.12710000001</v>
+        <v>90.91499999999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,13 +741,13 @@
         <v>5612.275</v>
       </c>
       <c r="G10" t="n">
-        <v>59011.85210000001</v>
+        <v>90.92499999999998</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,13 +777,13 @@
         <v>301.1709</v>
       </c>
       <c r="G11" t="n">
-        <v>59313.02300000001</v>
+        <v>90.93499999999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,13 +813,13 @@
         <v>1847.7195</v>
       </c>
       <c r="G12" t="n">
-        <v>59313.02300000001</v>
+        <v>90.93499999999997</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,13 +849,13 @@
         <v>2140.6891</v>
       </c>
       <c r="G13" t="n">
-        <v>59313.02300000001</v>
+        <v>90.93499999999997</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,13 +885,13 @@
         <v>2703.0233</v>
       </c>
       <c r="G14" t="n">
-        <v>59313.02300000001</v>
+        <v>90.90499999999997</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,13 +921,13 @@
         <v>7865.1325</v>
       </c>
       <c r="G15" t="n">
-        <v>59313.02300000001</v>
+        <v>90.89499999999997</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,13 +957,13 @@
         <v>8085.3931</v>
       </c>
       <c r="G16" t="n">
-        <v>51227.62990000001</v>
+        <v>90.86999999999998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,13 +993,13 @@
         <v>944.0368</v>
       </c>
       <c r="G17" t="n">
-        <v>51227.62990000001</v>
+        <v>90.84499999999997</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,13 +1029,13 @@
         <v>208.2215</v>
       </c>
       <c r="G18" t="n">
-        <v>51227.62990000001</v>
+        <v>90.82999999999997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,13 +1065,13 @@
         <v>9564.759400000001</v>
       </c>
       <c r="G19" t="n">
-        <v>60792.38930000001</v>
+        <v>90.81999999999996</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,13 +1101,13 @@
         <v>19600</v>
       </c>
       <c r="G20" t="n">
-        <v>41192.38930000001</v>
+        <v>90.81499999999997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,13 +1137,13 @@
         <v>39521.0904</v>
       </c>
       <c r="G21" t="n">
-        <v>1671.298900000009</v>
+        <v>90.81499999999997</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>406.8737</v>
       </c>
       <c r="G22" t="n">
-        <v>1671.298900000009</v>
+        <v>90.78999999999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,13 +1209,13 @@
         <v>229.9721</v>
       </c>
       <c r="G23" t="n">
-        <v>1671.298900000009</v>
+        <v>90.75499999999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,13 +1245,13 @@
         <v>544.4565</v>
       </c>
       <c r="G24" t="n">
-        <v>1126.842400000009</v>
+        <v>90.71999999999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,13 +1281,13 @@
         <v>706.9164</v>
       </c>
       <c r="G25" t="n">
-        <v>1126.842400000009</v>
+        <v>90.64999999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,13 +1317,13 @@
         <v>2754.4978</v>
       </c>
       <c r="G26" t="n">
-        <v>1126.842400000009</v>
+        <v>90.60999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,13 +1353,13 @@
         <v>51.7239</v>
       </c>
       <c r="G27" t="n">
-        <v>1126.842400000009</v>
+        <v>90.56999999999998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,13 +1389,13 @@
         <v>15000</v>
       </c>
       <c r="G28" t="n">
-        <v>-13873.15759999999</v>
+        <v>90.51499999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,13 +1425,13 @@
         <v>14850</v>
       </c>
       <c r="G29" t="n">
-        <v>-13873.15759999999</v>
+        <v>90.44999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>3500</v>
       </c>
       <c r="G30" t="n">
-        <v>-13873.15759999999</v>
+        <v>90.39499999999998</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>15389.675</v>
       </c>
       <c r="G31" t="n">
-        <v>-13873.15759999999</v>
+        <v>90.32999999999998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>27815.4745</v>
       </c>
       <c r="G32" t="n">
-        <v>-41688.63209999999</v>
+        <v>90.26499999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>8948.860199999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-41688.63209999999</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>5278.6957</v>
       </c>
       <c r="G34" t="n">
-        <v>-41688.63209999999</v>
+        <v>89.93499999999999</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1586,6 +1623,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1607,7 +1645,7 @@
         <v>70</v>
       </c>
       <c r="G35" t="n">
-        <v>-41688.63209999999</v>
+        <v>89.77</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -1629,6 +1667,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1650,7 +1689,7 @@
         <v>35392.1577</v>
       </c>
       <c r="G36" t="n">
-        <v>-77080.7898</v>
+        <v>89.60499999999999</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -1672,6 +1711,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1693,7 +1733,7 @@
         <v>8222.8097</v>
       </c>
       <c r="G37" t="n">
-        <v>-77080.7898</v>
+        <v>89.43499999999999</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
@@ -1715,6 +1755,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1736,7 +1777,7 @@
         <v>3051.0108</v>
       </c>
       <c r="G38" t="n">
-        <v>-77080.7898</v>
+        <v>89.26499999999999</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
@@ -1758,6 +1799,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1779,7 +1821,7 @@
         <v>824</v>
       </c>
       <c r="G39" t="n">
-        <v>-77080.7898</v>
+        <v>89.08999999999999</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1801,6 +1843,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1822,7 +1865,7 @@
         <v>1733.5146</v>
       </c>
       <c r="G40" t="n">
-        <v>-77080.7898</v>
+        <v>88.90999999999998</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1844,6 +1887,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1865,7 +1909,7 @@
         <v>127125.1236</v>
       </c>
       <c r="G41" t="n">
-        <v>-77080.7898</v>
+        <v>88.72499999999998</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1887,6 +1931,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1908,7 +1953,7 @@
         <v>1601.6671</v>
       </c>
       <c r="G42" t="n">
-        <v>-77080.7898</v>
+        <v>88.56499999999997</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1928,6 +1973,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1949,7 +1995,7 @@
         <v>165.9813</v>
       </c>
       <c r="G43" t="n">
-        <v>-76914.8085</v>
+        <v>88.40999999999998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1969,6 +2015,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1990,7 +2037,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>-76903.8085</v>
+        <v>88.26999999999998</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2010,6 +2057,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2031,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>-76914.8085</v>
+        <v>88.13499999999998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2051,6 +2099,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2072,7 +2121,7 @@
         <v>5031.5039</v>
       </c>
       <c r="G46" t="n">
-        <v>-76914.8085</v>
+        <v>87.99999999999997</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2092,6 +2141,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2113,7 +2163,7 @@
         <v>23515.1263</v>
       </c>
       <c r="G47" t="n">
-        <v>-100429.9348</v>
+        <v>87.84999999999998</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2133,6 +2183,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2154,7 +2205,7 @@
         <v>1504.8098</v>
       </c>
       <c r="G48" t="n">
-        <v>-100429.9348</v>
+        <v>87.71999999999997</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2176,6 +2227,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2197,7 +2249,7 @@
         <v>6979.5243</v>
       </c>
       <c r="G49" t="n">
-        <v>-93450.4105</v>
+        <v>87.57499999999996</v>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2219,6 +2271,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2240,7 +2293,7 @@
         <v>13493.457</v>
       </c>
       <c r="G50" t="n">
-        <v>-106943.8675</v>
+        <v>87.41999999999997</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
@@ -2262,6 +2315,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2283,7 +2337,7 @@
         <v>17907.0125</v>
       </c>
       <c r="G51" t="n">
-        <v>-89036.855</v>
+        <v>87.32999999999997</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2303,6 +2357,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2324,7 +2379,7 @@
         <v>1195.4227</v>
       </c>
       <c r="G52" t="n">
-        <v>-89036.855</v>
+        <v>87.28999999999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2344,6 +2399,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2365,7 +2421,7 @@
         <v>2317.1321</v>
       </c>
       <c r="G53" t="n">
-        <v>-89036.855</v>
+        <v>87.34999999999998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2385,6 +2441,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2406,7 +2463,7 @@
         <v>12000</v>
       </c>
       <c r="G54" t="n">
-        <v>-77036.855</v>
+        <v>87.40999999999998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2426,6 +2483,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2447,7 +2505,7 @@
         <v>29871.4262</v>
       </c>
       <c r="G55" t="n">
-        <v>-77036.855</v>
+        <v>87.51499999999997</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2467,6 +2525,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2488,7 +2547,7 @@
         <v>2803.2197</v>
       </c>
       <c r="G56" t="n">
-        <v>-79840.0747</v>
+        <v>87.60999999999997</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2508,6 +2567,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2529,7 +2589,7 @@
         <v>15472.6701</v>
       </c>
       <c r="G57" t="n">
-        <v>-64367.40459999999</v>
+        <v>87.70999999999997</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2549,6 +2609,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2570,7 +2631,7 @@
         <v>6633.9726</v>
       </c>
       <c r="G58" t="n">
-        <v>-57733.43199999999</v>
+        <v>87.83499999999997</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2590,6 +2651,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2611,7 +2673,7 @@
         <v>10969.2092</v>
       </c>
       <c r="G59" t="n">
-        <v>-57733.43199999999</v>
+        <v>87.96499999999997</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2631,6 +2693,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2652,7 +2715,7 @@
         <v>46662.8519</v>
       </c>
       <c r="G60" t="n">
-        <v>-57733.43199999999</v>
+        <v>88.09499999999998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2672,6 +2735,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2693,7 +2757,7 @@
         <v>3200</v>
       </c>
       <c r="G61" t="n">
-        <v>-57733.43199999999</v>
+        <v>88.22499999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2713,6 +2777,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2734,7 +2799,7 @@
         <v>14650</v>
       </c>
       <c r="G62" t="n">
-        <v>-57733.43199999999</v>
+        <v>88.35499999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2754,6 +2819,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2775,7 +2841,7 @@
         <v>106714.903</v>
       </c>
       <c r="G63" t="n">
-        <v>48981.47100000001</v>
+        <v>88.47999999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2795,6 +2861,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2816,7 +2883,7 @@
         <v>106870.1512606122</v>
       </c>
       <c r="G64" t="n">
-        <v>155851.6222606122</v>
+        <v>88.78</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2836,6 +2903,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2857,7 +2925,7 @@
         <v>81402.0727</v>
       </c>
       <c r="G65" t="n">
-        <v>74449.5495606122</v>
+        <v>89.05499999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2877,6 +2945,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2898,7 +2967,7 @@
         <v>6039.6149</v>
       </c>
       <c r="G66" t="n">
-        <v>68409.9346606122</v>
+        <v>89.47499999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2918,6 +2987,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2939,7 +3009,7 @@
         <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>68420.9346606122</v>
+        <v>89.815</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2959,6 +3029,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2980,7 +3051,7 @@
         <v>637.2179</v>
       </c>
       <c r="G68" t="n">
-        <v>67783.71676061219</v>
+        <v>90.16</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3000,6 +3071,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3021,7 +3093,7 @@
         <v>31994.7605</v>
       </c>
       <c r="G69" t="n">
-        <v>35788.95626061219</v>
+        <v>90.435</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3041,6 +3113,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3062,7 +3135,7 @@
         <v>5072.604</v>
       </c>
       <c r="G70" t="n">
-        <v>40861.56026061219</v>
+        <v>90.83500000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3082,6 +3155,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3103,7 +3177,7 @@
         <v>2896.0235</v>
       </c>
       <c r="G71" t="n">
-        <v>40861.56026061219</v>
+        <v>91.13</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3123,6 +3197,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3144,7 +3219,7 @@
         <v>21</v>
       </c>
       <c r="G72" t="n">
-        <v>40840.56026061219</v>
+        <v>91.31999999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3164,6 +3239,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3185,7 +3261,7 @@
         <v>19155.8656</v>
       </c>
       <c r="G73" t="n">
-        <v>40840.56026061219</v>
+        <v>91.50999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3205,6 +3281,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3226,7 +3303,7 @@
         <v>110</v>
       </c>
       <c r="G74" t="n">
-        <v>40950.56026061219</v>
+        <v>91.77999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3246,6 +3323,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3267,7 +3345,7 @@
         <v>8885</v>
       </c>
       <c r="G75" t="n">
-        <v>32065.56026061219</v>
+        <v>91.98499999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3287,6 +3365,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3308,7 +3387,7 @@
         <v>14300</v>
       </c>
       <c r="G76" t="n">
-        <v>17765.56026061219</v>
+        <v>92.155</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3328,6 +3407,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3349,7 +3429,7 @@
         <v>500</v>
       </c>
       <c r="G77" t="n">
-        <v>17765.56026061219</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3369,6 +3449,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3390,7 +3471,7 @@
         <v>19001.6308</v>
       </c>
       <c r="G78" t="n">
-        <v>36767.19106061219</v>
+        <v>92.54000000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3410,6 +3491,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3431,7 +3513,7 @@
         <v>6817.8834</v>
       </c>
       <c r="G79" t="n">
-        <v>36767.19106061219</v>
+        <v>92.75000000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3451,6 +3533,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3472,7 +3555,7 @@
         <v>25166.6182</v>
       </c>
       <c r="G80" t="n">
-        <v>61933.80926061219</v>
+        <v>92.965</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3492,6 +3575,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3513,7 +3597,7 @@
         <v>2838.8907</v>
       </c>
       <c r="G81" t="n">
-        <v>61933.80926061219</v>
+        <v>93.23</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3533,6 +3617,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3554,7 +3639,7 @@
         <v>33691.4608</v>
       </c>
       <c r="G82" t="n">
-        <v>28242.34846061219</v>
+        <v>93.47</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3574,6 +3659,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3595,7 +3681,7 @@
         <v>31410.2933</v>
       </c>
       <c r="G83" t="n">
-        <v>59652.6417606122</v>
+        <v>93.58500000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3615,6 +3701,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3636,7 +3723,7 @@
         <v>3951.9624</v>
       </c>
       <c r="G84" t="n">
-        <v>55700.6793606122</v>
+        <v>93.62</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3656,6 +3743,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3677,7 +3765,7 @@
         <v>5797.3657</v>
       </c>
       <c r="G85" t="n">
-        <v>49903.3136606122</v>
+        <v>93.595</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3697,6 +3785,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3718,7 +3807,7 @@
         <v>1286.2465</v>
       </c>
       <c r="G86" t="n">
-        <v>48617.0671606122</v>
+        <v>93.405</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3738,6 +3827,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3759,7 +3849,7 @@
         <v>9700</v>
       </c>
       <c r="G87" t="n">
-        <v>58317.0671606122</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3779,6 +3869,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3800,7 +3891,7 @@
         <v>319.8662</v>
       </c>
       <c r="G88" t="n">
-        <v>57997.2009606122</v>
+        <v>93.295</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3820,6 +3911,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3841,7 +3933,7 @@
         <v>18408.2176</v>
       </c>
       <c r="G89" t="n">
-        <v>76405.4185606122</v>
+        <v>93.30500000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3861,6 +3953,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3882,7 +3975,7 @@
         <v>10395.9169</v>
       </c>
       <c r="G90" t="n">
-        <v>66009.50166061221</v>
+        <v>93.17500000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3902,6 +3995,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3923,7 +4017,7 @@
         <v>8215.265100000001</v>
       </c>
       <c r="G91" t="n">
-        <v>74224.76676061221</v>
+        <v>93.09000000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3943,6 +4037,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3964,7 +4059,7 @@
         <v>14344.0441</v>
       </c>
       <c r="G92" t="n">
-        <v>88568.81086061221</v>
+        <v>93.06000000000003</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3984,6 +4079,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4005,7 +4101,7 @@
         <v>521.398</v>
       </c>
       <c r="G93" t="n">
-        <v>88047.41286061221</v>
+        <v>93.12000000000003</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4025,6 +4121,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4046,13 +4143,13 @@
         <v>1000</v>
       </c>
       <c r="G94" t="n">
-        <v>87047.41286061221</v>
+        <v>92.97000000000003</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
@@ -4060,11 +4157,14 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>1.036142857142857</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.046857142857143</v>
       </c>
     </row>
     <row r="95">
@@ -4087,7 +4187,7 @@
         <v>442.967</v>
       </c>
       <c r="G95" t="n">
-        <v>86604.44586061221</v>
+        <v>92.80000000000003</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4096,17 +4196,12 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4128,7 +4223,7 @@
         <v>2273.6593</v>
       </c>
       <c r="G96" t="n">
-        <v>84330.78656061221</v>
+        <v>92.68000000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4137,17 +4232,12 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4169,7 +4259,7 @@
         <v>19623.2164</v>
       </c>
       <c r="G97" t="n">
-        <v>64707.5701606122</v>
+        <v>92.53500000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4178,17 +4268,12 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4210,7 +4295,7 @@
         <v>1418.5258</v>
       </c>
       <c r="G98" t="n">
-        <v>66126.09596061221</v>
+        <v>92.41000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4219,17 +4304,12 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4251,7 +4331,7 @@
         <v>3328.8619</v>
       </c>
       <c r="G99" t="n">
-        <v>62797.2340606122</v>
+        <v>92.22</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4260,17 +4340,12 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4292,7 +4367,7 @@
         <v>19153.984</v>
       </c>
       <c r="G100" t="n">
-        <v>62797.2340606122</v>
+        <v>92</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4301,17 +4376,12 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4333,7 +4403,7 @@
         <v>5546.219</v>
       </c>
       <c r="G101" t="n">
-        <v>68343.4530606122</v>
+        <v>91.72999999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4342,17 +4412,12 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4374,7 +4439,7 @@
         <v>28492.8325</v>
       </c>
       <c r="G102" t="n">
-        <v>39850.62056061219</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4383,17 +4448,12 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4415,7 +4475,7 @@
         <v>9196.025299999999</v>
       </c>
       <c r="G103" t="n">
-        <v>39850.62056061219</v>
+        <v>91.36999999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4424,17 +4484,12 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4456,7 +4511,7 @@
         <v>15014.1757</v>
       </c>
       <c r="G104" t="n">
-        <v>39850.62056061219</v>
+        <v>91.13999999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4465,17 +4520,12 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4497,7 +4547,7 @@
         <v>5043.8386</v>
       </c>
       <c r="G105" t="n">
-        <v>39850.62056061219</v>
+        <v>90.99499999999998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4506,17 +4556,12 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4538,7 +4583,7 @@
         <v>250</v>
       </c>
       <c r="G106" t="n">
-        <v>40100.62056061219</v>
+        <v>90.87499999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4547,17 +4592,12 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4579,7 +4619,7 @@
         <v>1000</v>
       </c>
       <c r="G107" t="n">
-        <v>40100.62056061219</v>
+        <v>90.66499999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4588,17 +4628,12 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4620,7 +4655,7 @@
         <v>25815.753</v>
       </c>
       <c r="G108" t="n">
-        <v>65916.37356061219</v>
+        <v>90.65999999999998</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4629,17 +4664,12 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4661,7 +4691,7 @@
         <v>46984.70421742919</v>
       </c>
       <c r="G109" t="n">
-        <v>18931.669343183</v>
+        <v>90.63499999999998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4670,17 +4700,12 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4702,26 +4727,21 @@
         <v>3742.8318</v>
       </c>
       <c r="G110" t="n">
-        <v>18931.669343183</v>
+        <v>90.62999999999997</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4743,7 +4763,7 @@
         <v>6400</v>
       </c>
       <c r="G111" t="n">
-        <v>12531.669343183</v>
+        <v>90.53999999999996</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4752,17 +4772,12 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4784,7 +4799,7 @@
         <v>2000</v>
       </c>
       <c r="G112" t="n">
-        <v>10531.669343183</v>
+        <v>90.44499999999996</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4793,17 +4808,12 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4825,7 +4835,7 @@
         <v>5293.2208</v>
       </c>
       <c r="G113" t="n">
-        <v>15824.890143183</v>
+        <v>90.25499999999997</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4834,17 +4844,12 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4866,7 +4871,7 @@
         <v>13600</v>
       </c>
       <c r="G114" t="n">
-        <v>29424.890143183</v>
+        <v>90.26499999999996</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4875,17 +4880,12 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4907,7 +4907,7 @@
         <v>30254.11798257081</v>
       </c>
       <c r="G115" t="n">
-        <v>59679.00812575381</v>
+        <v>90.33499999999997</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4916,17 +4916,12 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4948,26 +4943,21 @@
         <v>100</v>
       </c>
       <c r="G116" t="n">
-        <v>59779.00812575381</v>
+        <v>90.46999999999997</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4989,7 +4979,7 @@
         <v>7061.5647</v>
       </c>
       <c r="G117" t="n">
-        <v>66840.57282575381</v>
+        <v>90.60499999999998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4998,17 +4988,12 @@
         <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>1.061285714285714</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5030,7 +5015,7 @@
         <v>15968.1528</v>
       </c>
       <c r="G118" t="n">
-        <v>50872.42002575382</v>
+        <v>90.64499999999997</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5044,6 +5029,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5065,13 +5051,13 @@
         <v>3100</v>
       </c>
       <c r="G119" t="n">
-        <v>53972.42002575382</v>
+        <v>90.65499999999997</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -5079,6 +5065,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5100,13 +5087,13 @@
         <v>2525.4564</v>
       </c>
       <c r="G120" t="n">
-        <v>53972.42002575382</v>
+        <v>90.82999999999997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5114,6 +5101,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5135,7 +5123,7 @@
         <v>9811.9709</v>
       </c>
       <c r="G121" t="n">
-        <v>44160.44912575382</v>
+        <v>91.00499999999997</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5149,6 +5137,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5170,7 +5159,7 @@
         <v>3514.282</v>
       </c>
       <c r="G122" t="n">
-        <v>47674.73112575382</v>
+        <v>91.17499999999997</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5184,6 +5173,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5205,13 +5195,13 @@
         <v>693.5757</v>
       </c>
       <c r="G123" t="n">
-        <v>48368.30682575382</v>
+        <v>91.22499999999997</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5219,6 +5209,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5240,7 +5231,7 @@
         <v>1955.9026</v>
       </c>
       <c r="G124" t="n">
-        <v>46412.40422575382</v>
+        <v>91.39499999999997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5254,6 +5245,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5275,7 +5267,7 @@
         <v>1162.0967</v>
       </c>
       <c r="G125" t="n">
-        <v>45250.30752575381</v>
+        <v>91.56499999999997</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5289,6 +5281,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5310,13 +5303,13 @@
         <v>149.3956</v>
       </c>
       <c r="G126" t="n">
-        <v>45399.70312575382</v>
+        <v>91.72999999999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5324,6 +5317,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5345,7 +5339,7 @@
         <v>318.4462</v>
       </c>
       <c r="G127" t="n">
-        <v>45399.70312575382</v>
+        <v>91.89499999999997</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5359,6 +5353,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5380,7 +5375,7 @@
         <v>79.78440000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>45319.91872575382</v>
+        <v>91.94499999999996</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5394,6 +5389,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5415,7 +5411,7 @@
         <v>59.8383</v>
       </c>
       <c r="G129" t="n">
-        <v>45319.91872575382</v>
+        <v>91.99499999999998</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5429,6 +5425,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5450,7 +5447,7 @@
         <v>44.8787</v>
       </c>
       <c r="G130" t="n">
-        <v>45319.91872575382</v>
+        <v>92.04499999999997</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5464,6 +5461,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5485,7 +5483,7 @@
         <v>394.227</v>
       </c>
       <c r="G131" t="n">
-        <v>44925.69172575382</v>
+        <v>92.17999999999998</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5499,6 +5497,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5520,13 +5519,13 @@
         <v>32.8189</v>
       </c>
       <c r="G132" t="n">
-        <v>44958.51062575382</v>
+        <v>92.31999999999996</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5534,6 +5533,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5555,7 +5555,7 @@
         <v>99.6554</v>
       </c>
       <c r="G133" t="n">
-        <v>44858.85522575382</v>
+        <v>92.32999999999996</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5569,6 +5569,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest CTXC.xlsx
+++ b/BackTest/2019-10-30 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>604.5505000000001</v>
+        <v>393.2527</v>
       </c>
       <c r="G2" t="n">
-        <v>90.56499999999998</v>
+        <v>23152.39340000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>1073.2601</v>
+        <v>18848.7478</v>
       </c>
       <c r="G3" t="n">
-        <v>90.63999999999999</v>
+        <v>23152.39340000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>2129.2448</v>
+        <v>18848.7479</v>
       </c>
       <c r="G4" t="n">
-        <v>90.71499999999999</v>
+        <v>23152.39340000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>91.59999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>91.59999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>91.59999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>91.59999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>166.3973</v>
+        <v>402.2854</v>
       </c>
       <c r="G5" t="n">
-        <v>90.77499999999998</v>
+        <v>23152.39340000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>3100</v>
+        <v>1710.4605</v>
       </c>
       <c r="G6" t="n">
-        <v>90.80999999999997</v>
+        <v>23152.39340000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>91</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>5968.1841</v>
+        <v>9295.3464</v>
       </c>
       <c r="G7" t="n">
-        <v>90.87999999999998</v>
+        <v>23152.39340000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>410</v>
+        <v>1258.5936</v>
       </c>
       <c r="G8" t="n">
-        <v>90.89999999999998</v>
+        <v>23152.39340000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>1664.779</v>
+        <v>4821.3236</v>
       </c>
       <c r="G9" t="n">
-        <v>90.91499999999998</v>
+        <v>23152.39340000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90.7</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>90.7</v>
+        <v>89.3</v>
       </c>
       <c r="D10" t="n">
-        <v>90.7</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>90.7</v>
+        <v>89.3</v>
       </c>
       <c r="F10" t="n">
-        <v>5612.275</v>
+        <v>372.8724</v>
       </c>
       <c r="G10" t="n">
-        <v>90.92499999999998</v>
+        <v>22779.52100000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>90.8</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>90.8</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>301.1709</v>
+        <v>1526.6255</v>
       </c>
       <c r="G11" t="n">
-        <v>90.93499999999997</v>
+        <v>24306.14650000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90.8</v>
+        <v>89.5</v>
       </c>
       <c r="C12" t="n">
-        <v>90.8</v>
+        <v>89.5</v>
       </c>
       <c r="D12" t="n">
-        <v>90.8</v>
+        <v>89.5</v>
       </c>
       <c r="E12" t="n">
-        <v>90.8</v>
+        <v>89.5</v>
       </c>
       <c r="F12" t="n">
-        <v>1847.7195</v>
+        <v>11312.2171</v>
       </c>
       <c r="G12" t="n">
-        <v>90.93499999999997</v>
+        <v>35618.36360000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>90.8</v>
+        <v>89.5</v>
       </c>
       <c r="C13" t="n">
-        <v>90.8</v>
+        <v>89.5</v>
       </c>
       <c r="D13" t="n">
-        <v>90.8</v>
+        <v>89.5</v>
       </c>
       <c r="E13" t="n">
-        <v>90.8</v>
+        <v>89.5</v>
       </c>
       <c r="F13" t="n">
-        <v>2140.6891</v>
+        <v>1400.1863</v>
       </c>
       <c r="G13" t="n">
-        <v>90.93499999999997</v>
+        <v>35618.36360000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>90.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>90.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>90.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>90.8</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>2703.0233</v>
+        <v>480.5088</v>
       </c>
       <c r="G14" t="n">
-        <v>90.90499999999997</v>
+        <v>36098.87240000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>90.8</v>
+        <v>90.3</v>
       </c>
       <c r="C15" t="n">
-        <v>90.8</v>
+        <v>90.3</v>
       </c>
       <c r="D15" t="n">
-        <v>90.8</v>
+        <v>90.3</v>
       </c>
       <c r="E15" t="n">
-        <v>90.8</v>
+        <v>90.3</v>
       </c>
       <c r="F15" t="n">
-        <v>7865.1325</v>
+        <v>2581.8099</v>
       </c>
       <c r="G15" t="n">
-        <v>90.89499999999997</v>
+        <v>33517.06250000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>90.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>90.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>90.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>90.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>8085.3931</v>
+        <v>476.736</v>
       </c>
       <c r="G16" t="n">
-        <v>90.86999999999998</v>
+        <v>33040.32650000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>90.5</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>944.0368</v>
+        <v>13335.6028</v>
       </c>
       <c r="G17" t="n">
-        <v>90.84499999999997</v>
+        <v>46375.92930000002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1026,16 +1026,16 @@
         <v>90.5</v>
       </c>
       <c r="F18" t="n">
-        <v>208.2215</v>
+        <v>2080.8607</v>
       </c>
       <c r="G18" t="n">
-        <v>90.82999999999997</v>
+        <v>48456.79000000002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="C19" t="n">
         <v>90.59999999999999</v>
       </c>
-      <c r="C19" t="n">
-        <v>90.7</v>
-      </c>
       <c r="D19" t="n">
-        <v>90.7</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>90.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="F19" t="n">
-        <v>9564.759400000001</v>
+        <v>11200</v>
       </c>
       <c r="G19" t="n">
-        <v>90.81999999999996</v>
+        <v>59656.79000000002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>90.7</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>90.59999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="D20" t="n">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="E20" t="n">
         <v>90.59999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>19600</v>
+        <v>7900</v>
       </c>
       <c r="G20" t="n">
-        <v>90.81499999999997</v>
+        <v>67556.79000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1125,25 +1125,25 @@
         <v>90.8</v>
       </c>
       <c r="C21" t="n">
-        <v>90.3</v>
+        <v>90.8</v>
       </c>
       <c r="D21" t="n">
         <v>90.8</v>
       </c>
       <c r="E21" t="n">
-        <v>90.3</v>
+        <v>90.8</v>
       </c>
       <c r="F21" t="n">
-        <v>39521.0904</v>
+        <v>15000</v>
       </c>
       <c r="G21" t="n">
-        <v>90.81499999999997</v>
+        <v>67556.79000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>90.3</v>
+        <v>90.8</v>
       </c>
       <c r="C22" t="n">
-        <v>90.3</v>
+        <v>90.8</v>
       </c>
       <c r="D22" t="n">
-        <v>90.3</v>
+        <v>90.8</v>
       </c>
       <c r="E22" t="n">
-        <v>90.3</v>
+        <v>90.8</v>
       </c>
       <c r="F22" t="n">
-        <v>406.8737</v>
+        <v>7730.1194</v>
       </c>
       <c r="G22" t="n">
-        <v>90.78999999999998</v>
+        <v>67556.79000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>90.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>90.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>90.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>90.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>229.9721</v>
+        <v>5449.0559</v>
       </c>
       <c r="G23" t="n">
-        <v>90.75499999999997</v>
+        <v>73005.84590000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>90.3</v>
+        <v>91</v>
       </c>
       <c r="C24" t="n">
-        <v>90.2</v>
+        <v>91</v>
       </c>
       <c r="D24" t="n">
-        <v>90.3</v>
+        <v>91</v>
       </c>
       <c r="E24" t="n">
-        <v>90.2</v>
+        <v>91</v>
       </c>
       <c r="F24" t="n">
-        <v>544.4565</v>
+        <v>771.7134</v>
       </c>
       <c r="G24" t="n">
-        <v>90.71999999999997</v>
+        <v>72234.13250000002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>90.2</v>
+        <v>91</v>
       </c>
       <c r="C25" t="n">
-        <v>90.2</v>
+        <v>91</v>
       </c>
       <c r="D25" t="n">
-        <v>90.2</v>
+        <v>91</v>
       </c>
       <c r="E25" t="n">
-        <v>90.2</v>
+        <v>91</v>
       </c>
       <c r="F25" t="n">
-        <v>706.9164</v>
+        <v>727.7807</v>
       </c>
       <c r="G25" t="n">
-        <v>90.64999999999998</v>
+        <v>72234.13250000002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>90.2</v>
+        <v>91</v>
       </c>
       <c r="C26" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="D26" t="n">
-        <v>90.2</v>
+        <v>91</v>
       </c>
       <c r="E26" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="F26" t="n">
-        <v>2754.4978</v>
+        <v>5339.6628</v>
       </c>
       <c r="G26" t="n">
-        <v>90.60999999999999</v>
+        <v>66894.46970000002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="C27" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="D27" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="E27" t="n">
-        <v>90.2</v>
+        <v>90.8</v>
       </c>
       <c r="F27" t="n">
-        <v>51.7239</v>
+        <v>521</v>
       </c>
       <c r="G27" t="n">
-        <v>90.56999999999998</v>
+        <v>66894.46970000002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>89.7</v>
+        <v>90.8</v>
       </c>
       <c r="C28" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="D28" t="n">
-        <v>89.7</v>
+        <v>90.8</v>
       </c>
       <c r="E28" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="F28" t="n">
-        <v>15000</v>
+        <v>288.3049</v>
       </c>
       <c r="G28" t="n">
-        <v>90.51499999999999</v>
+        <v>66894.46970000002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="C29" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="D29" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="E29" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="F29" t="n">
-        <v>14850</v>
+        <v>933.4874</v>
       </c>
       <c r="G29" t="n">
-        <v>90.44999999999999</v>
+        <v>66894.46970000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>89.59999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="C30" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="D30" t="n">
-        <v>89.59999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="E30" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="F30" t="n">
-        <v>3500</v>
+        <v>1503.1069</v>
       </c>
       <c r="G30" t="n">
-        <v>90.39499999999998</v>
+        <v>66894.46970000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="C31" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="D31" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="E31" t="n">
-        <v>89.5</v>
+        <v>90.8</v>
       </c>
       <c r="F31" t="n">
-        <v>15389.675</v>
+        <v>604.5505000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>90.32999999999998</v>
+        <v>66894.46970000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>89.5</v>
+        <v>91</v>
       </c>
       <c r="C32" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="D32" t="n">
-        <v>89.5</v>
+        <v>91</v>
       </c>
       <c r="E32" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="F32" t="n">
-        <v>27815.4745</v>
+        <v>1073.2601</v>
       </c>
       <c r="G32" t="n">
-        <v>90.26499999999999</v>
+        <v>67967.72980000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="C33" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="D33" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="E33" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="F33" t="n">
-        <v>8948.860199999999</v>
+        <v>2129.2448</v>
       </c>
       <c r="G33" t="n">
-        <v>90.09999999999999</v>
+        <v>67967.72980000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,35 +1590,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>87.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>87.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>87.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>87.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>5278.6957</v>
+        <v>166.3973</v>
       </c>
       <c r="G34" t="n">
-        <v>89.93499999999999</v>
+        <v>68134.12710000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>87.5</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
@@ -1630,40 +1626,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="C35" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="D35" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="E35" t="n">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="F35" t="n">
-        <v>70</v>
+        <v>3100</v>
       </c>
       <c r="G35" t="n">
-        <v>89.77</v>
+        <v>65034.12710000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1674,40 +1662,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>87.2</v>
+        <v>91</v>
       </c>
       <c r="C36" t="n">
-        <v>87.09999999999999</v>
+        <v>91</v>
       </c>
       <c r="D36" t="n">
-        <v>87.2</v>
+        <v>91</v>
       </c>
       <c r="E36" t="n">
-        <v>87.09999999999999</v>
+        <v>91</v>
       </c>
       <c r="F36" t="n">
-        <v>35392.1577</v>
+        <v>5968.1841</v>
       </c>
       <c r="G36" t="n">
-        <v>89.60499999999999</v>
+        <v>65034.12710000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K36" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1718,40 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="C37" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="D37" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="E37" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="F37" t="n">
-        <v>8222.8097</v>
+        <v>410</v>
       </c>
       <c r="G37" t="n">
-        <v>89.43499999999999</v>
+        <v>64624.12710000001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K37" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1762,40 +1734,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="C38" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="D38" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="E38" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="F38" t="n">
-        <v>3051.0108</v>
+        <v>1664.779</v>
       </c>
       <c r="G38" t="n">
-        <v>89.26499999999999</v>
+        <v>64624.12710000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K38" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1806,40 +1770,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>87.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="C39" t="n">
-        <v>87.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="D39" t="n">
-        <v>87.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="E39" t="n">
-        <v>87.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="F39" t="n">
-        <v>824</v>
+        <v>5612.275</v>
       </c>
       <c r="G39" t="n">
-        <v>89.08999999999999</v>
+        <v>59011.85210000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K39" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1850,40 +1806,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="C40" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="D40" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="E40" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="F40" t="n">
-        <v>1733.5146</v>
+        <v>301.1709</v>
       </c>
       <c r="G40" t="n">
-        <v>88.90999999999998</v>
+        <v>59313.02300000001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K40" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1894,40 +1842,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="C41" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="D41" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="E41" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="F41" t="n">
-        <v>127125.1236</v>
+        <v>1847.7195</v>
       </c>
       <c r="G41" t="n">
-        <v>88.72499999999998</v>
+        <v>59313.02300000001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K41" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1938,38 +1878,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="C42" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="D42" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="E42" t="n">
-        <v>87.09999999999999</v>
+        <v>90.8</v>
       </c>
       <c r="F42" t="n">
-        <v>1601.6671</v>
+        <v>2140.6891</v>
       </c>
       <c r="G42" t="n">
-        <v>88.56499999999997</v>
+        <v>59313.02300000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1980,38 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>87.2</v>
+        <v>90.8</v>
       </c>
       <c r="C43" t="n">
-        <v>87.2</v>
+        <v>90.8</v>
       </c>
       <c r="D43" t="n">
-        <v>87.2</v>
+        <v>90.8</v>
       </c>
       <c r="E43" t="n">
-        <v>87.2</v>
+        <v>90.8</v>
       </c>
       <c r="F43" t="n">
-        <v>165.9813</v>
+        <v>2703.0233</v>
       </c>
       <c r="G43" t="n">
-        <v>88.40999999999998</v>
+        <v>59313.02300000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2022,38 +1950,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>87.5</v>
+        <v>90.8</v>
       </c>
       <c r="C44" t="n">
-        <v>89.2</v>
+        <v>90.8</v>
       </c>
       <c r="D44" t="n">
-        <v>89.2</v>
+        <v>90.8</v>
       </c>
       <c r="E44" t="n">
-        <v>87.5</v>
+        <v>90.8</v>
       </c>
       <c r="F44" t="n">
-        <v>11</v>
+        <v>7865.1325</v>
       </c>
       <c r="G44" t="n">
-        <v>88.26999999999998</v>
+        <v>59313.02300000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2064,38 +1986,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="C45" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="D45" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="E45" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="F45" t="n">
-        <v>11</v>
+        <v>8085.3931</v>
       </c>
       <c r="G45" t="n">
-        <v>88.13499999999998</v>
+        <v>51227.62990000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2106,38 +2022,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="C46" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="D46" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="E46" t="n">
-        <v>87.5</v>
+        <v>90.5</v>
       </c>
       <c r="F46" t="n">
-        <v>5031.5039</v>
+        <v>944.0368</v>
       </c>
       <c r="G46" t="n">
-        <v>87.99999999999997</v>
+        <v>51227.62990000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2148,38 +2058,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>87.2</v>
+        <v>90.5</v>
       </c>
       <c r="C47" t="n">
-        <v>87.09999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="D47" t="n">
-        <v>87.2</v>
+        <v>90.5</v>
       </c>
       <c r="E47" t="n">
-        <v>87.09999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="F47" t="n">
-        <v>23515.1263</v>
+        <v>208.2215</v>
       </c>
       <c r="G47" t="n">
-        <v>87.84999999999998</v>
+        <v>51227.62990000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2190,40 +2094,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>87.09999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>87.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="D48" t="n">
-        <v>87.09999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="E48" t="n">
-        <v>87.09999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>1504.8098</v>
+        <v>9564.759400000001</v>
       </c>
       <c r="G48" t="n">
-        <v>87.71999999999997</v>
+        <v>60792.38930000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K48" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2234,40 +2130,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>86.59999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="C49" t="n">
-        <v>89</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>89</v>
+        <v>90.7</v>
       </c>
       <c r="E49" t="n">
-        <v>86.59999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>6979.5243</v>
+        <v>19600</v>
       </c>
       <c r="G49" t="n">
-        <v>87.57499999999996</v>
+        <v>41192.38930000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K49" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2278,40 +2166,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>86.5</v>
+        <v>90.8</v>
       </c>
       <c r="C50" t="n">
-        <v>86.09999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="D50" t="n">
-        <v>86.5</v>
+        <v>90.8</v>
       </c>
       <c r="E50" t="n">
-        <v>86.09999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="F50" t="n">
-        <v>13493.457</v>
+        <v>39521.0904</v>
       </c>
       <c r="G50" t="n">
-        <v>87.41999999999997</v>
+        <v>1671.298900000009</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>89</v>
-      </c>
-      <c r="K50" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2322,38 +2202,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>87.7</v>
+        <v>90.3</v>
       </c>
       <c r="C51" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="D51" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="E51" t="n">
-        <v>87.7</v>
+        <v>90.3</v>
       </c>
       <c r="F51" t="n">
-        <v>17907.0125</v>
+        <v>406.8737</v>
       </c>
       <c r="G51" t="n">
-        <v>87.32999999999997</v>
+        <v>1671.298900000009</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2364,38 +2238,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="C52" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="D52" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="E52" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="F52" t="n">
-        <v>1195.4227</v>
+        <v>229.9721</v>
       </c>
       <c r="G52" t="n">
-        <v>87.28999999999998</v>
+        <v>1671.298900000009</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2406,38 +2274,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="C53" t="n">
-        <v>88.7</v>
+        <v>90.2</v>
       </c>
       <c r="D53" t="n">
-        <v>88.7</v>
+        <v>90.3</v>
       </c>
       <c r="E53" t="n">
-        <v>88.7</v>
+        <v>90.2</v>
       </c>
       <c r="F53" t="n">
-        <v>2317.1321</v>
+        <v>544.4565</v>
       </c>
       <c r="G53" t="n">
-        <v>87.34999999999998</v>
+        <v>1126.842400000009</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2448,38 +2310,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>88.7</v>
+        <v>90.2</v>
       </c>
       <c r="C54" t="n">
-        <v>89.7</v>
+        <v>90.2</v>
       </c>
       <c r="D54" t="n">
-        <v>89.7</v>
+        <v>90.2</v>
       </c>
       <c r="E54" t="n">
-        <v>88.7</v>
+        <v>90.2</v>
       </c>
       <c r="F54" t="n">
-        <v>12000</v>
+        <v>706.9164</v>
       </c>
       <c r="G54" t="n">
-        <v>87.40999999999998</v>
+        <v>1126.842400000009</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2490,38 +2346,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>89.59999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="C55" t="n">
-        <v>89.7</v>
+        <v>90.2</v>
       </c>
       <c r="D55" t="n">
-        <v>89.7</v>
+        <v>90.2</v>
       </c>
       <c r="E55" t="n">
-        <v>89.59999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="F55" t="n">
-        <v>29871.4262</v>
+        <v>2754.4978</v>
       </c>
       <c r="G55" t="n">
-        <v>87.51499999999997</v>
+        <v>1126.842400000009</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2532,38 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>89.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="C56" t="n">
-        <v>89.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="D56" t="n">
-        <v>89.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="E56" t="n">
-        <v>89.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="F56" t="n">
-        <v>2803.2197</v>
+        <v>51.7239</v>
       </c>
       <c r="G56" t="n">
-        <v>87.60999999999997</v>
+        <v>1126.842400000009</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2574,38 +2418,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>89.09999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="C57" t="n">
-        <v>89.59999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="D57" t="n">
         <v>89.7</v>
       </c>
       <c r="E57" t="n">
-        <v>89.09999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="F57" t="n">
-        <v>15472.6701</v>
+        <v>15000</v>
       </c>
       <c r="G57" t="n">
-        <v>87.70999999999997</v>
+        <v>-13873.15759999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2616,38 +2454,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>89.59999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="C58" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="D58" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="E58" t="n">
-        <v>89.59999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="F58" t="n">
-        <v>6633.9726</v>
+        <v>14850</v>
       </c>
       <c r="G58" t="n">
-        <v>87.83499999999997</v>
+        <v>-13873.15759999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2658,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>89.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="D59" t="n">
-        <v>89.7</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="F59" t="n">
-        <v>10969.2092</v>
+        <v>3500</v>
       </c>
       <c r="G59" t="n">
-        <v>87.96499999999997</v>
+        <v>-13873.15759999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2682,14 +2514,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2700,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="C60" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="D60" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="E60" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="F60" t="n">
-        <v>46662.8519</v>
+        <v>15389.675</v>
       </c>
       <c r="G60" t="n">
-        <v>88.09499999999998</v>
+        <v>-13873.15759999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2724,14 +2550,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="C61" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="D61" t="n">
-        <v>89.7</v>
+        <v>89.5</v>
       </c>
       <c r="E61" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="F61" t="n">
-        <v>3200</v>
+        <v>27815.4745</v>
       </c>
       <c r="G61" t="n">
-        <v>88.22499999999999</v>
+        <v>-41688.63209999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2766,14 +2586,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2784,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="C62" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="D62" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="E62" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="F62" t="n">
-        <v>14650</v>
+        <v>8948.860199999999</v>
       </c>
       <c r="G62" t="n">
-        <v>88.35499999999999</v>
+        <v>-41688.63209999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2808,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2826,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="C63" t="n">
-        <v>93.5</v>
+        <v>87.5</v>
       </c>
       <c r="D63" t="n">
-        <v>93.5</v>
+        <v>87.5</v>
       </c>
       <c r="E63" t="n">
-        <v>89.7</v>
+        <v>87.5</v>
       </c>
       <c r="F63" t="n">
-        <v>106714.903</v>
+        <v>5278.6957</v>
       </c>
       <c r="G63" t="n">
-        <v>88.47999999999999</v>
+        <v>-41688.63209999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2850,14 +2658,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2868,38 +2670,36 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>93.5</v>
+        <v>87.5</v>
       </c>
       <c r="C64" t="n">
-        <v>98</v>
+        <v>87.5</v>
       </c>
       <c r="D64" t="n">
-        <v>98</v>
+        <v>87.5</v>
       </c>
       <c r="E64" t="n">
-        <v>93.5</v>
+        <v>87.5</v>
       </c>
       <c r="F64" t="n">
-        <v>106870.1512606122</v>
+        <v>70</v>
       </c>
       <c r="G64" t="n">
-        <v>88.78</v>
+        <v>-41688.63209999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>87.5</v>
+      </c>
       <c r="K64" t="n">
         <v>87.5</v>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2910,36 +2710,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>93</v>
+        <v>87.2</v>
       </c>
       <c r="C65" t="n">
-        <v>95.90000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>98</v>
+        <v>87.2</v>
       </c>
       <c r="E65" t="n">
         <v>87.09999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>81402.0727</v>
+        <v>35392.1577</v>
       </c>
       <c r="G65" t="n">
-        <v>89.05499999999999</v>
+        <v>-77080.7898</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>87.5</v>
+      </c>
       <c r="K65" t="n">
         <v>87.5</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -2952,30 +2754,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>95.90000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>96</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>6039.6149</v>
+        <v>8222.8097</v>
       </c>
       <c r="G66" t="n">
-        <v>89.47499999999999</v>
+        <v>-77080.7898</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K66" t="n">
         <v>87.5</v>
       </c>
@@ -2994,30 +2798,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>95</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>95</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>11</v>
+        <v>3051.0108</v>
       </c>
       <c r="G67" t="n">
-        <v>89.815</v>
+        <v>-77080.7898</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K67" t="n">
         <v>87.5</v>
       </c>
@@ -3036,30 +2842,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>94</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>637.2179</v>
+        <v>824</v>
       </c>
       <c r="G68" t="n">
-        <v>90.16</v>
+        <v>-77080.7898</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K68" t="n">
         <v>87.5</v>
       </c>
@@ -3078,30 +2886,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>92.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>93.7</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>94.8</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>91.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>31994.7605</v>
+        <v>1733.5146</v>
       </c>
       <c r="G69" t="n">
-        <v>90.435</v>
+        <v>-77080.7898</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K69" t="n">
         <v>87.5</v>
       </c>
@@ -3120,30 +2930,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>94.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>94.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>94.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>93.40000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>5072.604</v>
+        <v>127125.1236</v>
       </c>
       <c r="G70" t="n">
-        <v>90.83500000000001</v>
+        <v>-77080.7898</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K70" t="n">
         <v>87.5</v>
       </c>
@@ -3162,22 +2974,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>93.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>94.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>94.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>93.59999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>2896.0235</v>
+        <v>1601.6671</v>
       </c>
       <c r="G71" t="n">
-        <v>91.13</v>
+        <v>-77080.7898</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3204,22 +3016,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>92.5</v>
+        <v>87.2</v>
       </c>
       <c r="C72" t="n">
-        <v>92.5</v>
+        <v>87.2</v>
       </c>
       <c r="D72" t="n">
-        <v>92.5</v>
+        <v>87.2</v>
       </c>
       <c r="E72" t="n">
-        <v>92.5</v>
+        <v>87.2</v>
       </c>
       <c r="F72" t="n">
-        <v>21</v>
+        <v>165.9813</v>
       </c>
       <c r="G72" t="n">
-        <v>91.31999999999999</v>
+        <v>-76914.8085</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3246,30 +3058,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>92.5</v>
+        <v>87.5</v>
       </c>
       <c r="C73" t="n">
-        <v>92.5</v>
+        <v>89.2</v>
       </c>
       <c r="D73" t="n">
-        <v>92.5</v>
+        <v>89.2</v>
       </c>
       <c r="E73" t="n">
-        <v>90.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="F73" t="n">
-        <v>19155.8656</v>
+        <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>91.50999999999999</v>
+        <v>-76903.8085</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>87.2</v>
+      </c>
       <c r="K73" t="n">
         <v>87.5</v>
       </c>
@@ -3288,30 +3102,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>94.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="C74" t="n">
-        <v>94.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="D74" t="n">
-        <v>94.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="E74" t="n">
-        <v>94.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="F74" t="n">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="G74" t="n">
-        <v>91.77999999999999</v>
+        <v>-76914.8085</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>89.2</v>
+      </c>
       <c r="K74" t="n">
         <v>87.5</v>
       </c>
@@ -3330,22 +3146,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>93.7</v>
+        <v>87.5</v>
       </c>
       <c r="C75" t="n">
-        <v>93.7</v>
+        <v>87.5</v>
       </c>
       <c r="D75" t="n">
-        <v>93.7</v>
+        <v>87.5</v>
       </c>
       <c r="E75" t="n">
-        <v>92</v>
+        <v>87.5</v>
       </c>
       <c r="F75" t="n">
-        <v>8885</v>
+        <v>5031.5039</v>
       </c>
       <c r="G75" t="n">
-        <v>91.98499999999999</v>
+        <v>-76914.8085</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3372,30 +3188,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>92.5</v>
+        <v>87.2</v>
       </c>
       <c r="C76" t="n">
-        <v>93</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>93</v>
+        <v>87.2</v>
       </c>
       <c r="E76" t="n">
-        <v>92.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>14300</v>
+        <v>23515.1263</v>
       </c>
       <c r="G76" t="n">
-        <v>92.155</v>
+        <v>-100429.9348</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>87.5</v>
+      </c>
       <c r="K76" t="n">
         <v>87.5</v>
       </c>
@@ -3414,22 +3232,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>93</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>93</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>93</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>93</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>500</v>
+        <v>1504.8098</v>
       </c>
       <c r="G77" t="n">
-        <v>92.34999999999999</v>
+        <v>-100429.9348</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3456,30 +3274,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>93.40000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D78" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E78" t="n">
-        <v>93.40000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>19001.6308</v>
+        <v>6979.5243</v>
       </c>
       <c r="G78" t="n">
-        <v>92.54000000000001</v>
+        <v>-93450.4105</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K78" t="n">
         <v>87.5</v>
       </c>
@@ -3498,22 +3318,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>93.90000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="C79" t="n">
-        <v>94</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>94</v>
+        <v>86.5</v>
       </c>
       <c r="E79" t="n">
-        <v>93.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>6817.8834</v>
+        <v>13493.457</v>
       </c>
       <c r="G79" t="n">
-        <v>92.75000000000001</v>
+        <v>-106943.8675</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3540,30 +3360,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>94</v>
+        <v>87.7</v>
       </c>
       <c r="C80" t="n">
-        <v>94.90000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="D80" t="n">
-        <v>94.90000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="E80" t="n">
-        <v>93.3</v>
+        <v>87.7</v>
       </c>
       <c r="F80" t="n">
-        <v>25166.6182</v>
+        <v>17907.0125</v>
       </c>
       <c r="G80" t="n">
-        <v>92.965</v>
+        <v>-89036.855</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>86.09999999999999</v>
+      </c>
       <c r="K80" t="n">
         <v>87.5</v>
       </c>
@@ -3582,30 +3404,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>95</v>
+        <v>88.7</v>
       </c>
       <c r="C81" t="n">
-        <v>94.90000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="D81" t="n">
-        <v>95</v>
+        <v>88.7</v>
       </c>
       <c r="E81" t="n">
-        <v>94.59999999999999</v>
+        <v>88.7</v>
       </c>
       <c r="F81" t="n">
-        <v>2838.8907</v>
+        <v>1195.4227</v>
       </c>
       <c r="G81" t="n">
-        <v>93.23</v>
+        <v>-89036.855</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>88.7</v>
+      </c>
       <c r="K81" t="n">
         <v>87.5</v>
       </c>
@@ -3624,22 +3448,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>94.5</v>
+        <v>88.7</v>
       </c>
       <c r="C82" t="n">
-        <v>91.3</v>
+        <v>88.7</v>
       </c>
       <c r="D82" t="n">
-        <v>94.5</v>
+        <v>88.7</v>
       </c>
       <c r="E82" t="n">
-        <v>91.2</v>
+        <v>88.7</v>
       </c>
       <c r="F82" t="n">
-        <v>33691.4608</v>
+        <v>2317.1321</v>
       </c>
       <c r="G82" t="n">
-        <v>93.47</v>
+        <v>-89036.855</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3666,22 +3490,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>92</v>
+        <v>88.7</v>
       </c>
       <c r="C83" t="n">
-        <v>94.8</v>
+        <v>89.7</v>
       </c>
       <c r="D83" t="n">
-        <v>94.8</v>
+        <v>89.7</v>
       </c>
       <c r="E83" t="n">
-        <v>91.8</v>
+        <v>88.7</v>
       </c>
       <c r="F83" t="n">
-        <v>31410.2933</v>
+        <v>12000</v>
       </c>
       <c r="G83" t="n">
-        <v>93.58500000000001</v>
+        <v>-77036.855</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3708,22 +3532,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>94.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>92.40000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="D84" t="n">
-        <v>94.2</v>
+        <v>89.7</v>
       </c>
       <c r="E84" t="n">
-        <v>92.40000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F84" t="n">
-        <v>3951.9624</v>
+        <v>29871.4262</v>
       </c>
       <c r="G84" t="n">
-        <v>93.62</v>
+        <v>-77036.855</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3750,22 +3574,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>92.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>92.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>92.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>92.2</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>5797.3657</v>
+        <v>2803.2197</v>
       </c>
       <c r="G85" t="n">
-        <v>93.595</v>
+        <v>-79840.0747</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3792,22 +3616,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>92.09999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>91.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>92.09999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="E86" t="n">
-        <v>91.5</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>1286.2465</v>
+        <v>15472.6701</v>
       </c>
       <c r="G86" t="n">
-        <v>93.405</v>
+        <v>-64367.40459999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3834,22 +3658,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>93.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>94.09999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="D87" t="n">
-        <v>94.09999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="E87" t="n">
-        <v>93.90000000000001</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>9700</v>
+        <v>6633.9726</v>
       </c>
       <c r="G87" t="n">
-        <v>93.40000000000001</v>
+        <v>-57733.43199999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3876,22 +3700,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="C88" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="D88" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="E88" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="F88" t="n">
-        <v>319.8662</v>
+        <v>10969.2092</v>
       </c>
       <c r="G88" t="n">
-        <v>93.295</v>
+        <v>-57733.43199999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3918,22 +3742,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>92.3</v>
+        <v>89.7</v>
       </c>
       <c r="C89" t="n">
-        <v>92</v>
+        <v>89.7</v>
       </c>
       <c r="D89" t="n">
-        <v>92.3</v>
+        <v>89.7</v>
       </c>
       <c r="E89" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="F89" t="n">
-        <v>18408.2176</v>
+        <v>46662.8519</v>
       </c>
       <c r="G89" t="n">
-        <v>93.30500000000001</v>
+        <v>-57733.43199999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3960,22 +3784,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="C90" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="D90" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="E90" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="F90" t="n">
-        <v>10395.9169</v>
+        <v>3200</v>
       </c>
       <c r="G90" t="n">
-        <v>93.17500000000001</v>
+        <v>-57733.43199999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4002,22 +3826,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="C91" t="n">
-        <v>93</v>
+        <v>89.7</v>
       </c>
       <c r="D91" t="n">
-        <v>93</v>
+        <v>89.7</v>
       </c>
       <c r="E91" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="F91" t="n">
-        <v>8215.265100000001</v>
+        <v>14650</v>
       </c>
       <c r="G91" t="n">
-        <v>93.09000000000002</v>
+        <v>-57733.43199999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4044,22 +3868,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>91.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="C92" t="n">
-        <v>93.8</v>
+        <v>93.5</v>
       </c>
       <c r="D92" t="n">
-        <v>93.8</v>
+        <v>93.5</v>
       </c>
       <c r="E92" t="n">
-        <v>91.09999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="F92" t="n">
-        <v>14344.0441</v>
+        <v>106714.903</v>
       </c>
       <c r="G92" t="n">
-        <v>93.06000000000003</v>
+        <v>48981.47100000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4086,22 +3910,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>93.7</v>
+        <v>93.5</v>
       </c>
       <c r="C93" t="n">
-        <v>93.7</v>
+        <v>98</v>
       </c>
       <c r="D93" t="n">
-        <v>93.7</v>
+        <v>98</v>
       </c>
       <c r="E93" t="n">
-        <v>93.7</v>
+        <v>93.5</v>
       </c>
       <c r="F93" t="n">
-        <v>521.398</v>
+        <v>106870.1512606122</v>
       </c>
       <c r="G93" t="n">
-        <v>93.12000000000003</v>
+        <v>155851.6222606122</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4128,28 +3952,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>91.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>91.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>91.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="E94" t="n">
-        <v>91.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>1000</v>
+        <v>81402.0727</v>
       </c>
       <c r="G94" t="n">
-        <v>92.97000000000003</v>
+        <v>74449.5495606122</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
@@ -4157,37 +3981,35 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1.036142857142857</v>
-      </c>
-      <c r="N94" t="n">
-        <v>1.046857142857143</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>90.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>90.3</v>
+        <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>90.3</v>
+        <v>96</v>
       </c>
       <c r="E95" t="n">
-        <v>90.3</v>
+        <v>94</v>
       </c>
       <c r="F95" t="n">
-        <v>442.967</v>
+        <v>6039.6149</v>
       </c>
       <c r="G95" t="n">
-        <v>92.80000000000003</v>
+        <v>68409.9346606122</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4196,8 +4018,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4208,22 +4036,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>90.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="C96" t="n">
-        <v>90.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>90.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="E96" t="n">
-        <v>90.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="F96" t="n">
-        <v>2273.6593</v>
+        <v>11</v>
       </c>
       <c r="G96" t="n">
-        <v>92.68000000000002</v>
+        <v>68420.9346606122</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4232,8 +4060,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4244,22 +4078,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>90.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="C97" t="n">
-        <v>89.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="D97" t="n">
-        <v>90.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="E97" t="n">
-        <v>89.59999999999999</v>
+        <v>94</v>
       </c>
       <c r="F97" t="n">
-        <v>19623.2164</v>
+        <v>637.2179</v>
       </c>
       <c r="G97" t="n">
-        <v>92.53500000000001</v>
+        <v>67783.71676061219</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4268,8 +4102,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4280,22 +4120,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>90.90000000000001</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>90.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="D98" t="n">
-        <v>90.90000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="E98" t="n">
-        <v>90.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>1418.5258</v>
+        <v>31994.7605</v>
       </c>
       <c r="G98" t="n">
-        <v>92.41000000000001</v>
+        <v>35788.95626061219</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4304,8 +4144,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4316,22 +4162,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>90.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C99" t="n">
-        <v>89.59999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>90.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>89.59999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F99" t="n">
-        <v>3328.8619</v>
+        <v>5072.604</v>
       </c>
       <c r="G99" t="n">
-        <v>92.22</v>
+        <v>40861.56026061219</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4340,8 +4186,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4352,22 +4204,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>89.59999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="C100" t="n">
-        <v>89.59999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>89.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>89.59999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>19153.984</v>
+        <v>2896.0235</v>
       </c>
       <c r="G100" t="n">
-        <v>92</v>
+        <v>40861.56026061219</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4376,8 +4228,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4246,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>89.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="C101" t="n">
-        <v>89.7</v>
+        <v>92.5</v>
       </c>
       <c r="D101" t="n">
-        <v>89.7</v>
+        <v>92.5</v>
       </c>
       <c r="E101" t="n">
-        <v>89.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="F101" t="n">
-        <v>5546.219</v>
+        <v>21</v>
       </c>
       <c r="G101" t="n">
-        <v>91.72999999999999</v>
+        <v>40840.56026061219</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4412,8 +4270,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4424,22 +4288,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>89.7</v>
+        <v>92.5</v>
       </c>
       <c r="C102" t="n">
-        <v>89.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="D102" t="n">
-        <v>89.7</v>
+        <v>92.5</v>
       </c>
       <c r="E102" t="n">
-        <v>89.59999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>28492.8325</v>
+        <v>19155.8656</v>
       </c>
       <c r="G102" t="n">
-        <v>91.48999999999999</v>
+        <v>40840.56026061219</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4448,8 +4312,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4460,22 +4330,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>89.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C103" t="n">
-        <v>89.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>89.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>89.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>9196.025299999999</v>
+        <v>110</v>
       </c>
       <c r="G103" t="n">
-        <v>91.36999999999999</v>
+        <v>40950.56026061219</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4484,8 +4354,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4496,22 +4372,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>89.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="C104" t="n">
-        <v>89.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="D104" t="n">
-        <v>89.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="E104" t="n">
-        <v>89.59999999999999</v>
+        <v>92</v>
       </c>
       <c r="F104" t="n">
-        <v>15014.1757</v>
+        <v>8885</v>
       </c>
       <c r="G104" t="n">
-        <v>91.13999999999999</v>
+        <v>32065.56026061219</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4520,8 +4396,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4532,22 +4414,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>89.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="C105" t="n">
-        <v>89.59999999999999</v>
+        <v>93</v>
       </c>
       <c r="D105" t="n">
-        <v>89.59999999999999</v>
+        <v>93</v>
       </c>
       <c r="E105" t="n">
-        <v>89.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="F105" t="n">
-        <v>5043.8386</v>
+        <v>14300</v>
       </c>
       <c r="G105" t="n">
-        <v>90.99499999999998</v>
+        <v>17765.56026061219</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4556,8 +4438,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4568,22 +4456,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>89.7</v>
+        <v>93</v>
       </c>
       <c r="C106" t="n">
-        <v>89.7</v>
+        <v>93</v>
       </c>
       <c r="D106" t="n">
-        <v>89.7</v>
+        <v>93</v>
       </c>
       <c r="E106" t="n">
-        <v>89.7</v>
+        <v>93</v>
       </c>
       <c r="F106" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="G106" t="n">
-        <v>90.87499999999999</v>
+        <v>17765.56026061219</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4592,8 +4480,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4604,22 +4498,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>89.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>89.7</v>
+        <v>94</v>
       </c>
       <c r="D107" t="n">
-        <v>89.7</v>
+        <v>94</v>
       </c>
       <c r="E107" t="n">
-        <v>89.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>1000</v>
+        <v>19001.6308</v>
       </c>
       <c r="G107" t="n">
-        <v>90.66499999999999</v>
+        <v>36767.19106061219</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4628,8 +4522,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4640,22 +4540,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>91.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>93.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="D108" t="n">
-        <v>93.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="E108" t="n">
-        <v>91.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>25815.753</v>
+        <v>6817.8834</v>
       </c>
       <c r="G108" t="n">
-        <v>90.65999999999998</v>
+        <v>36767.19106061219</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4664,8 +4564,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4676,22 +4582,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>91.8</v>
+        <v>94</v>
       </c>
       <c r="C109" t="n">
-        <v>91.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>91.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>91.7</v>
+        <v>93.3</v>
       </c>
       <c r="F109" t="n">
-        <v>46984.70421742919</v>
+        <v>25166.6182</v>
       </c>
       <c r="G109" t="n">
-        <v>90.63499999999998</v>
+        <v>61933.80926061219</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4700,8 +4606,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4712,32 +4624,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>91.8</v>
+        <v>95</v>
       </c>
       <c r="C110" t="n">
-        <v>91.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>91.8</v>
+        <v>95</v>
       </c>
       <c r="E110" t="n">
-        <v>91.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>3742.8318</v>
+        <v>2838.8907</v>
       </c>
       <c r="G110" t="n">
-        <v>90.62999999999997</v>
+        <v>61933.80926061219</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4748,22 +4666,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>90.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="C111" t="n">
-        <v>90.09999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="D111" t="n">
-        <v>90.09999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="E111" t="n">
-        <v>90.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="F111" t="n">
-        <v>6400</v>
+        <v>33691.4608</v>
       </c>
       <c r="G111" t="n">
-        <v>90.53999999999996</v>
+        <v>28242.34846061219</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4772,8 +4690,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4784,22 +4708,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C112" t="n">
-        <v>90</v>
+        <v>94.8</v>
       </c>
       <c r="D112" t="n">
-        <v>90</v>
+        <v>94.8</v>
       </c>
       <c r="E112" t="n">
-        <v>90</v>
+        <v>91.8</v>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>31410.2933</v>
       </c>
       <c r="G112" t="n">
-        <v>90.44499999999996</v>
+        <v>59652.6417606122</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4808,8 +4732,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4820,22 +4750,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>89.90000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="C113" t="n">
-        <v>91.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>91.3</v>
+        <v>94.2</v>
       </c>
       <c r="E113" t="n">
-        <v>89.90000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>5293.2208</v>
+        <v>3951.9624</v>
       </c>
       <c r="G113" t="n">
-        <v>90.25499999999997</v>
+        <v>55700.6793606122</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4844,8 +4774,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4856,22 +4792,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>91.3</v>
+        <v>92.5</v>
       </c>
       <c r="C114" t="n">
-        <v>91.7</v>
+        <v>92.2</v>
       </c>
       <c r="D114" t="n">
-        <v>91.7</v>
+        <v>92.5</v>
       </c>
       <c r="E114" t="n">
-        <v>91.3</v>
+        <v>92.2</v>
       </c>
       <c r="F114" t="n">
-        <v>13600</v>
+        <v>5797.3657</v>
       </c>
       <c r="G114" t="n">
-        <v>90.26499999999996</v>
+        <v>49903.3136606122</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4880,8 +4816,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4892,22 +4834,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>91.7</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>91.8</v>
+        <v>91.5</v>
       </c>
       <c r="D115" t="n">
-        <v>91.8</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="F115" t="n">
-        <v>30254.11798257081</v>
+        <v>1286.2465</v>
       </c>
       <c r="G115" t="n">
-        <v>90.33499999999997</v>
+        <v>48617.0671606122</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4916,8 +4858,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4928,32 +4876,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>92.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>92.8</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>92.8</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>100</v>
+        <v>9700</v>
       </c>
       <c r="G116" t="n">
-        <v>90.46999999999997</v>
+        <v>58317.0671606122</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4964,32 +4918,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>92.8</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>93.3</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>93.3</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>92.8</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>7061.5647</v>
+        <v>319.8662</v>
       </c>
       <c r="G117" t="n">
-        <v>90.60499999999998</v>
+        <v>57997.2009606122</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5000,32 +4960,38 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>91.7</v>
+        <v>92.3</v>
       </c>
       <c r="C118" t="n">
-        <v>90.2</v>
+        <v>92</v>
       </c>
       <c r="D118" t="n">
-        <v>91.7</v>
+        <v>92.3</v>
       </c>
       <c r="E118" t="n">
-        <v>90.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>15968.1528</v>
+        <v>18408.2176</v>
       </c>
       <c r="G118" t="n">
-        <v>90.64499999999997</v>
+        <v>76405.4185606122</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5036,32 +5002,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>90.3</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>93.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>93.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>90.3</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>3100</v>
+        <v>10395.9169</v>
       </c>
       <c r="G119" t="n">
-        <v>90.65499999999997</v>
+        <v>66009.50166061221</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5072,32 +5044,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>93.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="D120" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="E120" t="n">
-        <v>93.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>2525.4564</v>
+        <v>8215.265100000001</v>
       </c>
       <c r="G120" t="n">
-        <v>90.82999999999997</v>
+        <v>74224.76676061221</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5108,32 +5086,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>93.09999999999999</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>90.3</v>
+        <v>93.8</v>
       </c>
       <c r="D121" t="n">
-        <v>93.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="E121" t="n">
-        <v>90.3</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>9811.9709</v>
+        <v>14344.0441</v>
       </c>
       <c r="G121" t="n">
-        <v>91.00499999999997</v>
+        <v>88568.81086061221</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5144,32 +5128,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>93.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="C122" t="n">
-        <v>90.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="D122" t="n">
-        <v>93.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="E122" t="n">
-        <v>90.40000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="F122" t="n">
-        <v>3514.282</v>
+        <v>521.398</v>
       </c>
       <c r="G122" t="n">
-        <v>91.17499999999997</v>
+        <v>88047.41286061221</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5180,32 +5170,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>90.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>93</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>93</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>90.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="F123" t="n">
-        <v>693.5757</v>
+        <v>1000</v>
       </c>
       <c r="G123" t="n">
-        <v>91.22499999999997</v>
+        <v>87047.41286061221</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5216,32 +5212,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>93</v>
+        <v>90.3</v>
       </c>
       <c r="C124" t="n">
-        <v>90.59999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="D124" t="n">
-        <v>93</v>
+        <v>90.3</v>
       </c>
       <c r="E124" t="n">
-        <v>90.59999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="F124" t="n">
-        <v>1955.9026</v>
+        <v>442.967</v>
       </c>
       <c r="G124" t="n">
-        <v>91.39499999999997</v>
+        <v>86604.44586061221</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5252,32 +5254,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>93</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>90.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>93</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>90.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>1162.0967</v>
+        <v>2273.6593</v>
       </c>
       <c r="G125" t="n">
-        <v>91.56499999999997</v>
+        <v>84330.78656061221</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5288,32 +5296,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>93</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>93</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>93</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>93</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>149.3956</v>
+        <v>19623.2164</v>
       </c>
       <c r="G126" t="n">
-        <v>91.72999999999998</v>
+        <v>64707.5701606122</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5324,32 +5338,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>93</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>93</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>93</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>93</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>318.4462</v>
+        <v>1418.5258</v>
       </c>
       <c r="G127" t="n">
-        <v>91.89499999999997</v>
+        <v>66126.09596061221</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5360,32 +5380,38 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>92.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>92.8</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>79.78440000000001</v>
+        <v>3328.8619</v>
       </c>
       <c r="G128" t="n">
-        <v>91.94499999999996</v>
+        <v>62797.2340606122</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5396,32 +5422,38 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>92.8</v>
+        <v>89.7</v>
       </c>
       <c r="E129" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>59.8383</v>
+        <v>19153.984</v>
       </c>
       <c r="G129" t="n">
-        <v>91.99499999999998</v>
+        <v>62797.2340606122</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5432,32 +5464,38 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>92.8</v>
+        <v>89.7</v>
       </c>
       <c r="D130" t="n">
-        <v>92.8</v>
+        <v>89.7</v>
       </c>
       <c r="E130" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>44.8787</v>
+        <v>5546.219</v>
       </c>
       <c r="G130" t="n">
-        <v>92.04499999999997</v>
+        <v>68343.4530606122</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5468,32 +5506,38 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>92.8</v>
+        <v>89.7</v>
       </c>
       <c r="C131" t="n">
-        <v>90.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>92.8</v>
+        <v>89.7</v>
       </c>
       <c r="E131" t="n">
-        <v>90.2</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>394.227</v>
+        <v>28492.8325</v>
       </c>
       <c r="G131" t="n">
-        <v>92.17999999999998</v>
+        <v>39850.62056061219</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5504,32 +5548,38 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>92.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>32.8189</v>
+        <v>9196.025299999999</v>
       </c>
       <c r="G132" t="n">
-        <v>92.31999999999996</v>
+        <v>39850.62056061219</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5540,36 +5590,1170 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="C133" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="D133" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="E133" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15014.1757</v>
+      </c>
+      <c r="G133" t="n">
+        <v>39850.62056061219</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="D134" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="E134" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5043.8386</v>
+      </c>
+      <c r="G134" t="n">
+        <v>39850.62056061219</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>250</v>
+      </c>
+      <c r="G135" t="n">
+        <v>40100.62056061219</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>40100.62056061219</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="D137" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E137" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F137" t="n">
+        <v>25815.753</v>
+      </c>
+      <c r="G137" t="n">
+        <v>65916.37356061219</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>46984.70421742919</v>
+      </c>
+      <c r="G138" t="n">
+        <v>18931.669343183</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3742.8318</v>
+      </c>
+      <c r="G139" t="n">
+        <v>18931.669343183</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C140" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D140" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E140" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F140" t="n">
+        <v>6400</v>
+      </c>
+      <c r="G140" t="n">
+        <v>12531.669343183</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>90</v>
+      </c>
+      <c r="C141" t="n">
+        <v>90</v>
+      </c>
+      <c r="D141" t="n">
+        <v>90</v>
+      </c>
+      <c r="E141" t="n">
+        <v>90</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>10531.669343183</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="C142" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5293.2208</v>
+      </c>
+      <c r="G142" t="n">
+        <v>15824.890143183</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="D143" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>13600</v>
+      </c>
+      <c r="G143" t="n">
+        <v>29424.890143183</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E144" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>30254.11798257081</v>
+      </c>
+      <c r="G144" t="n">
+        <v>59679.00812575381</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>100</v>
+      </c>
+      <c r="G145" t="n">
+        <v>59779.00812575381</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="E146" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7061.5647</v>
+      </c>
+      <c r="G146" t="n">
+        <v>66840.57282575381</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="F147" t="n">
+        <v>15968.1528</v>
+      </c>
+      <c r="G147" t="n">
+        <v>50872.42002575382</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1.025857142857143</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="C148" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="D148" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E148" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3100</v>
+      </c>
+      <c r="G148" t="n">
+        <v>53972.42002575382</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="C149" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="D149" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E149" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2525.4564</v>
+      </c>
+      <c r="G149" t="n">
+        <v>53972.42002575382</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E150" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="F150" t="n">
+        <v>9811.9709</v>
+      </c>
+      <c r="G150" t="n">
+        <v>44160.44912575382</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="C151" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D151" t="n">
+        <v>93.09999999999999</v>
+      </c>
+      <c r="E151" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3514.282</v>
+      </c>
+      <c r="G151" t="n">
+        <v>47674.73112575382</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>93</v>
+      </c>
+      <c r="D152" t="n">
+        <v>93</v>
+      </c>
+      <c r="E152" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="F152" t="n">
+        <v>693.5757</v>
+      </c>
+      <c r="G152" t="n">
+        <v>48368.30682575382</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>93</v>
+      </c>
+      <c r="C153" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="D153" t="n">
+        <v>93</v>
+      </c>
+      <c r="E153" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1955.9026</v>
+      </c>
+      <c r="G153" t="n">
+        <v>46412.40422575382</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>93</v>
+      </c>
+      <c r="C154" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>93</v>
+      </c>
+      <c r="E154" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1162.0967</v>
+      </c>
+      <c r="G154" t="n">
+        <v>45250.30752575381</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>93</v>
+      </c>
+      <c r="C155" t="n">
+        <v>93</v>
+      </c>
+      <c r="D155" t="n">
+        <v>93</v>
+      </c>
+      <c r="E155" t="n">
+        <v>93</v>
+      </c>
+      <c r="F155" t="n">
+        <v>149.3956</v>
+      </c>
+      <c r="G155" t="n">
+        <v>45399.70312575382</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>93</v>
+      </c>
+      <c r="C156" t="n">
+        <v>93</v>
+      </c>
+      <c r="D156" t="n">
+        <v>93</v>
+      </c>
+      <c r="E156" t="n">
+        <v>93</v>
+      </c>
+      <c r="F156" t="n">
+        <v>318.4462</v>
+      </c>
+      <c r="G156" t="n">
+        <v>45399.70312575382</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C157" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>79.78440000000001</v>
+      </c>
+      <c r="G157" t="n">
+        <v>45319.91872575382</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C158" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D158" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E158" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>59.8383</v>
+      </c>
+      <c r="G158" t="n">
+        <v>45319.91872575382</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F159" t="n">
+        <v>44.8787</v>
+      </c>
+      <c r="G159" t="n">
+        <v>45319.91872575382</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="D160" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F160" t="n">
+        <v>394.227</v>
+      </c>
+      <c r="G160" t="n">
+        <v>44925.69172575382</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="C161" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="E161" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>32.8189</v>
+      </c>
+      <c r="G161" t="n">
+        <v>44958.51062575382</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="D162" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="E162" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="F162" t="n">
         <v>99.6554</v>
       </c>
-      <c r="G133" t="n">
-        <v>92.32999999999996</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="G162" t="n">
+        <v>44858.85522575382</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest CTXC.xlsx
+++ b/BackTest/2019-10-30 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N162"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>67556.79000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>67556.79000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>72234.13250000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>66894.46970000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>66894.46970000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>67967.72980000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>65034.12710000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>64624.12710000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>64624.12710000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>59011.85210000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1804,15 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>60792.38930000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>41192.38930000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>1671.298900000009</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>1671.298900000009</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>1671.298900000009</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-13873.15759999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-13873.15759999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-13873.15759999999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-13873.15759999999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-41688.63209999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-41688.63209999999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-41688.63209999999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,20 +2499,13 @@
       <c r="H64" t="n">
         <v>1</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K64" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2730,2104 +2532,1804 @@
       <c r="H65" t="n">
         <v>1</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C66" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D66" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E66" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8222.8097</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-77080.7898</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C67" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D67" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E67" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3051.0108</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-77080.7898</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C68" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D68" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E68" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F68" t="n">
+        <v>824</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-77080.7898</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D69" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E69" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1733.5146</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-77080.7898</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C70" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D70" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E70" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F70" t="n">
+        <v>127125.1236</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-77080.7898</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C71" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D71" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E71" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1601.6671</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-77080.7898</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J71" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>165.9813</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-76914.8085</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J72" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
         <v>87.5</v>
       </c>
-      <c r="K65" t="n">
+      <c r="C73" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E73" t="n">
         <v>87.5</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="F73" t="n">
+        <v>11</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-76903.8085</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>11</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-76914.8085</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5031.5039</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-76914.8085</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D76" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="E76" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F76" t="n">
+        <v>23515.1263</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-100429.9348</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C77" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D77" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E77" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1504.8098</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-100429.9348</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="C78" t="n">
+        <v>89</v>
+      </c>
+      <c r="D78" t="n">
+        <v>89</v>
+      </c>
+      <c r="E78" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6979.5243</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-93450.4105</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="C66" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D66" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E66" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F66" t="n">
-        <v>8222.8097</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-77080.7898</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K66" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="D79" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="F79" t="n">
+        <v>13493.457</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-106943.8675</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>89</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="C67" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D67" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E67" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F67" t="n">
-        <v>3051.0108</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-77080.7898</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K67" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="C80" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D80" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E80" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="F80" t="n">
+        <v>17907.0125</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-89036.855</v>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="C68" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D68" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E68" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F68" t="n">
-        <v>824</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-77080.7898</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K68" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C81" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D81" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E81" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1195.4227</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-89036.855</v>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="C69" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D69" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E69" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1733.5146</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-77080.7898</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K69" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C82" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D82" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E82" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2317.1321</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-89036.855</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="C70" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D70" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E70" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F70" t="n">
-        <v>127125.1236</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-77080.7898</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K70" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C83" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D83" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E83" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F83" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-77036.855</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="C71" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D71" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E71" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1601.6671</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-77080.7898</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="C84" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D84" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E84" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="F84" t="n">
+        <v>29871.4262</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-77036.855</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="D72" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="E72" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="F72" t="n">
-        <v>165.9813</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-76914.8085</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="C85" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D85" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="E85" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2803.2197</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-79840.0747</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="C73" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="D73" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="E73" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="F73" t="n">
-        <v>11</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-76903.8085</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="K73" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="C86" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="D86" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15472.6701</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-64367.40459999999</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="C74" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="D74" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="E74" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="F74" t="n">
-        <v>11</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-76914.8085</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="K74" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="C87" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D87" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E87" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="F87" t="n">
+        <v>6633.9726</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-57733.43199999999</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="C75" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="D75" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="E75" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="F75" t="n">
-        <v>5031.5039</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-76914.8085</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C88" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10969.2092</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-57733.43199999999</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="C76" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D76" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="E76" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23515.1263</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-100429.9348</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K76" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C89" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D89" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>46662.8519</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-57733.43199999999</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="C77" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D77" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E77" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1504.8098</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-100429.9348</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C90" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D90" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E90" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-57733.43199999999</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="C78" t="n">
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="D78" t="n">
-        <v>89</v>
-      </c>
-      <c r="E78" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="F78" t="n">
-        <v>6979.5243</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-93450.4105</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K78" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D91" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E91" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F91" t="n">
+        <v>14650</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-57733.43199999999</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="C79" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="D79" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="E79" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="F79" t="n">
-        <v>13493.457</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-106943.8675</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>106714.903</v>
+      </c>
+      <c r="G92" t="n">
+        <v>48981.47100000001</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="C80" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D80" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E80" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="F80" t="n">
-        <v>17907.0125</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-89036.855</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="K80" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>98</v>
+      </c>
+      <c r="D93" t="n">
+        <v>98</v>
+      </c>
+      <c r="E93" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>106870.1512606122</v>
+      </c>
+      <c r="G93" t="n">
+        <v>155851.6222606122</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C81" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D81" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E81" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1195.4227</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-89036.855</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="K81" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="D94" t="n">
+        <v>98</v>
+      </c>
+      <c r="E94" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F94" t="n">
+        <v>81402.0727</v>
+      </c>
+      <c r="G94" t="n">
+        <v>74449.5495606122</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C82" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D82" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E82" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2317.1321</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-89036.855</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="C95" t="n">
+        <v>94</v>
+      </c>
+      <c r="D95" t="n">
+        <v>96</v>
+      </c>
+      <c r="E95" t="n">
+        <v>94</v>
+      </c>
+      <c r="F95" t="n">
+        <v>6039.6149</v>
+      </c>
+      <c r="G95" t="n">
+        <v>68409.9346606122</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C83" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D83" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E83" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F83" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-77036.855</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>95</v>
+      </c>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="n">
+        <v>94</v>
+      </c>
+      <c r="F96" t="n">
+        <v>11</v>
+      </c>
+      <c r="G96" t="n">
+        <v>68420.9346606122</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="C84" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D84" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E84" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="F84" t="n">
-        <v>29871.4262</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-77036.855</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>94</v>
+      </c>
+      <c r="C97" t="n">
+        <v>94</v>
+      </c>
+      <c r="D97" t="n">
+        <v>94</v>
+      </c>
+      <c r="E97" t="n">
+        <v>94</v>
+      </c>
+      <c r="F97" t="n">
+        <v>637.2179</v>
+      </c>
+      <c r="G97" t="n">
+        <v>67783.71676061219</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="C85" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="D85" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="E85" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2803.2197</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-79840.0747</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="C98" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="D98" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="E98" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="F98" t="n">
+        <v>31994.7605</v>
+      </c>
+      <c r="G98" t="n">
+        <v>35788.95626061219</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="C86" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="D86" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E86" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="F86" t="n">
-        <v>15472.6701</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-64367.40459999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D99" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E99" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5072.604</v>
+      </c>
+      <c r="G99" t="n">
+        <v>40861.56026061219</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="C87" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D87" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E87" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="F87" t="n">
-        <v>6633.9726</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-57733.43199999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="C100" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="D100" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="E100" t="n">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2896.0235</v>
+      </c>
+      <c r="G100" t="n">
+        <v>40861.56026061219</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C88" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D88" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E88" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>10969.2092</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-57733.43199999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>21</v>
+      </c>
+      <c r="G101" t="n">
+        <v>40840.56026061219</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C89" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D89" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E89" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F89" t="n">
-        <v>46662.8519</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-57733.43199999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="C102" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="F102" t="n">
+        <v>19155.8656</v>
+      </c>
+      <c r="G102" t="n">
+        <v>40840.56026061219</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C90" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D90" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E90" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F90" t="n">
-        <v>3200</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-57733.43199999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="C103" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="D103" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="E103" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="F103" t="n">
+        <v>110</v>
+      </c>
+      <c r="G103" t="n">
+        <v>40950.56026061219</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C91" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D91" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E91" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F91" t="n">
-        <v>14650</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-57733.43199999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="C104" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="D104" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="E104" t="n">
+        <v>92</v>
+      </c>
+      <c r="F104" t="n">
+        <v>8885</v>
+      </c>
+      <c r="G104" t="n">
+        <v>32065.56026061219</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C92" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="D92" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="E92" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F92" t="n">
-        <v>106714.903</v>
-      </c>
-      <c r="G92" t="n">
-        <v>48981.47100000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>93</v>
+      </c>
+      <c r="D105" t="n">
+        <v>93</v>
+      </c>
+      <c r="E105" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="F105" t="n">
+        <v>14300</v>
+      </c>
+      <c r="G105" t="n">
+        <v>17765.56026061219</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="C93" t="n">
-        <v>98</v>
-      </c>
-      <c r="D93" t="n">
-        <v>98</v>
-      </c>
-      <c r="E93" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="F93" t="n">
-        <v>106870.1512606122</v>
-      </c>
-      <c r="G93" t="n">
-        <v>155851.6222606122</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>93</v>
+      </c>
+      <c r="C106" t="n">
+        <v>93</v>
+      </c>
+      <c r="D106" t="n">
+        <v>93</v>
+      </c>
+      <c r="E106" t="n">
+        <v>93</v>
+      </c>
+      <c r="F106" t="n">
+        <v>500</v>
+      </c>
+      <c r="G106" t="n">
+        <v>17765.56026061219</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>93</v>
-      </c>
-      <c r="C94" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="D94" t="n">
-        <v>98</v>
-      </c>
-      <c r="E94" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F94" t="n">
-        <v>81402.0727</v>
-      </c>
-      <c r="G94" t="n">
-        <v>74449.5495606122</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="C107" t="n">
+        <v>94</v>
+      </c>
+      <c r="D107" t="n">
+        <v>94</v>
+      </c>
+      <c r="E107" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="F107" t="n">
+        <v>19001.6308</v>
+      </c>
+      <c r="G107" t="n">
+        <v>36767.19106061219</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="C95" t="n">
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C108" t="n">
         <v>94</v>
       </c>
-      <c r="D95" t="n">
-        <v>96</v>
-      </c>
-      <c r="E95" t="n">
+      <c r="D108" t="n">
         <v>94</v>
       </c>
-      <c r="F95" t="n">
-        <v>6039.6149</v>
-      </c>
-      <c r="G95" t="n">
-        <v>68409.9346606122</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="E108" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6817.8834</v>
+      </c>
+      <c r="G108" t="n">
+        <v>36767.19106061219</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
-        <v>94</v>
-      </c>
-      <c r="C96" t="n">
-        <v>95</v>
-      </c>
-      <c r="D96" t="n">
-        <v>95</v>
-      </c>
-      <c r="E96" t="n">
-        <v>94</v>
-      </c>
-      <c r="F96" t="n">
-        <v>11</v>
-      </c>
-      <c r="G96" t="n">
-        <v>68420.9346606122</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="C109" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="D109" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="E109" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F109" t="n">
+        <v>25166.6182</v>
+      </c>
+      <c r="G109" t="n">
+        <v>61933.80926061219</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
-        <v>94</v>
-      </c>
-      <c r="C97" t="n">
-        <v>94</v>
-      </c>
-      <c r="D97" t="n">
-        <v>94</v>
-      </c>
-      <c r="E97" t="n">
-        <v>94</v>
-      </c>
-      <c r="F97" t="n">
-        <v>637.2179</v>
-      </c>
-      <c r="G97" t="n">
-        <v>67783.71676061219</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="C110" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="D110" t="n">
+        <v>95</v>
+      </c>
+      <c r="E110" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2838.8907</v>
+      </c>
+      <c r="G110" t="n">
+        <v>61933.80926061219</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="C98" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="D98" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="E98" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="F98" t="n">
-        <v>31994.7605</v>
-      </c>
-      <c r="G98" t="n">
-        <v>35788.95626061219</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>33691.4608</v>
+      </c>
+      <c r="G111" t="n">
+        <v>28242.34846061219</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C99" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="D99" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="E99" t="n">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="F99" t="n">
-        <v>5072.604</v>
-      </c>
-      <c r="G99" t="n">
-        <v>40861.56026061219</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>92</v>
+      </c>
+      <c r="C112" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>31410.2933</v>
+      </c>
+      <c r="G112" t="n">
+        <v>59652.6417606122</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="C100" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="D100" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="E100" t="n">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="F100" t="n">
-        <v>2896.0235</v>
-      </c>
-      <c r="G100" t="n">
-        <v>40861.56026061219</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="D113" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="E113" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3951.9624</v>
+      </c>
+      <c r="G113" t="n">
+        <v>55700.6793606122</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
         <v>92.5</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C114" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="D114" t="n">
         <v>92.5</v>
       </c>
-      <c r="D101" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="E101" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="F101" t="n">
-        <v>21</v>
-      </c>
-      <c r="G101" t="n">
-        <v>40840.56026061219</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="E114" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5797.3657</v>
+      </c>
+      <c r="G114" t="n">
+        <v>49903.3136606122</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="C102" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="D102" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="E102" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="F102" t="n">
-        <v>19155.8656</v>
-      </c>
-      <c r="G102" t="n">
-        <v>40840.56026061219</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="C103" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="D103" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="E103" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="F103" t="n">
-        <v>110</v>
-      </c>
-      <c r="G103" t="n">
-        <v>40950.56026061219</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="C104" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="D104" t="n">
-        <v>93.7</v>
-      </c>
-      <c r="E104" t="n">
-        <v>92</v>
-      </c>
-      <c r="F104" t="n">
-        <v>8885</v>
-      </c>
-      <c r="G104" t="n">
-        <v>32065.56026061219</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="C105" t="n">
-        <v>93</v>
-      </c>
-      <c r="D105" t="n">
-        <v>93</v>
-      </c>
-      <c r="E105" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="F105" t="n">
-        <v>14300</v>
-      </c>
-      <c r="G105" t="n">
-        <v>17765.56026061219</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>93</v>
-      </c>
-      <c r="C106" t="n">
-        <v>93</v>
-      </c>
-      <c r="D106" t="n">
-        <v>93</v>
-      </c>
-      <c r="E106" t="n">
-        <v>93</v>
-      </c>
-      <c r="F106" t="n">
-        <v>500</v>
-      </c>
-      <c r="G106" t="n">
-        <v>17765.56026061219</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="C107" t="n">
-        <v>94</v>
-      </c>
-      <c r="D107" t="n">
-        <v>94</v>
-      </c>
-      <c r="E107" t="n">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="F107" t="n">
-        <v>19001.6308</v>
-      </c>
-      <c r="G107" t="n">
-        <v>36767.19106061219</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="C108" t="n">
-        <v>94</v>
-      </c>
-      <c r="D108" t="n">
-        <v>94</v>
-      </c>
-      <c r="E108" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F108" t="n">
-        <v>6817.8834</v>
-      </c>
-      <c r="G108" t="n">
-        <v>36767.19106061219</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>94</v>
-      </c>
-      <c r="C109" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="D109" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="E109" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="F109" t="n">
-        <v>25166.6182</v>
-      </c>
-      <c r="G109" t="n">
-        <v>61933.80926061219</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>95</v>
-      </c>
-      <c r="C110" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="D110" t="n">
-        <v>95</v>
-      </c>
-      <c r="E110" t="n">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="F110" t="n">
-        <v>2838.8907</v>
-      </c>
-      <c r="G110" t="n">
-        <v>61933.80926061219</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="C111" t="n">
-        <v>91.3</v>
-      </c>
-      <c r="D111" t="n">
-        <v>94.5</v>
-      </c>
-      <c r="E111" t="n">
-        <v>91.2</v>
-      </c>
-      <c r="F111" t="n">
-        <v>33691.4608</v>
-      </c>
-      <c r="G111" t="n">
-        <v>28242.34846061219</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>92</v>
-      </c>
-      <c r="C112" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="D112" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="E112" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="F112" t="n">
-        <v>31410.2933</v>
-      </c>
-      <c r="G112" t="n">
-        <v>59652.6417606122</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="C113" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="D113" t="n">
-        <v>94.2</v>
-      </c>
-      <c r="E113" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="F113" t="n">
-        <v>3951.9624</v>
-      </c>
-      <c r="G113" t="n">
-        <v>55700.6793606122</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="C114" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="D114" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="F114" t="n">
-        <v>5797.3657</v>
-      </c>
-      <c r="G114" t="n">
-        <v>49903.3136606122</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4852,24 +4354,17 @@
         <v>48617.0671606122</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4896,22 +4391,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4938,22 +4424,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4980,22 +4457,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5022,22 +4490,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5064,22 +4523,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5106,22 +4556,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5148,22 +4589,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5190,22 +4622,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5232,22 +4655,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5274,22 +4688,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5316,22 +4721,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5358,22 +4754,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5400,22 +4787,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5442,22 +4820,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5484,22 +4853,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5526,22 +4886,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5568,22 +4919,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5610,22 +4952,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5652,22 +4985,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5694,22 +5018,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5736,22 +5051,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5778,22 +5084,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5820,22 +5117,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5862,22 +5150,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5904,22 +5183,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5946,22 +5216,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5988,22 +5249,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6030,22 +5282,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6072,22 +5315,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6114,22 +5348,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6156,22 +5381,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6198,22 +5414,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1.025857142857143</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6240,16 +5447,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6276,16 +5480,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6312,16 +5513,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6348,16 +5546,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6384,16 +5579,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6420,16 +5612,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6454,18 +5643,15 @@
         <v>45250.30752575381</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6490,18 +5676,15 @@
         <v>45399.70312575382</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6526,18 +5709,15 @@
         <v>45399.70312575382</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6562,18 +5742,15 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6598,18 +5775,15 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6636,16 +5810,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6670,18 +5841,15 @@
         <v>44925.69172575382</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6706,18 +5874,15 @@
         <v>44958.51062575382</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6742,20 +5907,17 @@
         <v>44858.85522575382</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest CTXC.xlsx
+++ b/BackTest/2019-10-30 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1045,7 +1045,7 @@
         <v>67556.79000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>67556.79000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>72234.13250000002</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>66894.46970000002</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>66894.46970000002</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>67967.72980000002</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>65034.12710000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>64624.12710000001</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>64624.12710000001</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>59011.85210000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>60792.38930000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>41192.38930000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1671.298900000009</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1671.298900000009</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1671.298900000009</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-13873.15759999999</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-13873.15759999999</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-13873.15759999999</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-13873.15759999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-41688.63209999999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-41688.63209999999</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-41688.63209999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-41688.63209999999</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-77080.7898</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-77080.7898</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-77080.7898</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-77080.7898</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-77080.7898</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-77080.7898</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,14 +2728,10 @@
         <v>-77080.7898</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J71" t="n">
-        <v>87.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
@@ -2765,19 +2761,11 @@
         <v>-76914.8085</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J72" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2809,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2977,7 +2959,7 @@
         <v>-93450.4105</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>87.09999999999999</v>
@@ -3016,7 +2998,7 @@
         <v>-106943.8675</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>89</v>
@@ -3055,7 +3037,7 @@
         <v>-89036.855</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>86.09999999999999</v>
@@ -3094,7 +3076,7 @@
         <v>-89036.855</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>88.7</v>
@@ -3281,9 +3263,11 @@
         <v>-64367.40459999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>89.09999999999999</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -4354,16 +4338,18 @@
         <v>48617.0671606122</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
       <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -4393,7 +4379,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4426,7 +4416,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4459,7 +4453,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4492,7 +4490,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4525,7 +4527,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4558,7 +4564,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4591,7 +4601,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4624,7 +4638,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4657,7 +4675,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4690,7 +4712,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4723,7 +4749,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4756,7 +4786,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4789,7 +4823,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4822,7 +4860,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4855,7 +4897,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4884,14 +4930,16 @@
         <v>39850.62056061219</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -4917,7 +4965,7 @@
         <v>39850.62056061219</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4950,7 +4998,7 @@
         <v>39850.62056061219</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4983,7 +5031,7 @@
         <v>39850.62056061219</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5016,7 +5064,7 @@
         <v>40100.62056061219</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5049,7 +5097,7 @@
         <v>40100.62056061219</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5082,7 +5130,7 @@
         <v>65916.37356061219</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5115,7 +5163,7 @@
         <v>18931.669343183</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5148,7 +5196,7 @@
         <v>18931.669343183</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5181,7 +5229,7 @@
         <v>12531.669343183</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5214,7 +5262,7 @@
         <v>10531.669343183</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5247,7 +5295,7 @@
         <v>15824.890143183</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5280,7 +5328,7 @@
         <v>29424.890143183</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5346,7 +5394,7 @@
         <v>59779.00812575381</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5379,7 +5427,7 @@
         <v>66840.57282575381</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5412,7 +5460,7 @@
         <v>50872.42002575382</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5478,7 +5526,7 @@
         <v>53972.42002575382</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5511,7 +5559,7 @@
         <v>44160.44912575382</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5544,7 +5592,7 @@
         <v>47674.73112575382</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5577,7 +5625,7 @@
         <v>48368.30682575382</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5643,7 +5691,7 @@
         <v>45250.30752575381</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5676,7 +5724,7 @@
         <v>45399.70312575382</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5709,7 +5757,7 @@
         <v>45399.70312575382</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5742,7 +5790,7 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5775,7 +5823,7 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5808,7 +5856,7 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5841,7 +5889,7 @@
         <v>44925.69172575382</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5874,7 +5922,7 @@
         <v>44958.51062575382</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5907,7 +5955,7 @@
         <v>44858.85522575382</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5918,6 +5966,6 @@
       <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest CTXC.xlsx
+++ b/BackTest/2019-10-30 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2629,10 +2629,14 @@
         <v>-77080.7898</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J68" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2662,11 +2666,19 @@
         <v>-77080.7898</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J69" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2707,19 @@
         <v>-77080.7898</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J70" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2794,10 +2814,14 @@
         <v>-76903.8085</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>87.2</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
@@ -2830,8 +2854,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +2893,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2926,10 +2962,14 @@
         <v>-100429.9348</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J77" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -2959,12 +2999,12 @@
         <v>-93450.4105</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2998,12 +3038,12 @@
         <v>-106943.8675</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>89</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3042,7 +3082,9 @@
       <c r="I80" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3076,12 +3118,12 @@
         <v>-89036.855</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3118,7 +3160,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3155,7 +3199,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3192,7 +3238,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3229,7 +3277,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3263,12 +3313,12 @@
         <v>-64367.40459999999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3305,7 +3355,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3342,7 +3394,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3379,7 +3433,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3416,7 +3472,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3453,7 +3511,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3490,7 +3550,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3527,7 +3589,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3564,7 +3628,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3601,7 +3667,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3638,7 +3706,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3675,7 +3745,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3712,7 +3784,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3749,7 +3823,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3786,7 +3862,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3823,7 +3901,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3860,7 +3940,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3897,7 +3979,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3934,7 +4018,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3971,7 +4057,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4008,7 +4096,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4045,7 +4135,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,7 +4174,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4119,7 +4213,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4156,7 +4252,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4193,7 +4291,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4230,7 +4330,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4267,7 +4369,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4304,7 +4408,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4341,7 +4447,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4378,7 +4486,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4415,7 +4525,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4452,7 +4564,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4489,7 +4603,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4526,7 +4642,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4563,7 +4681,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4597,19 +4717,23 @@
         <v>88047.41286061221</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>1.07077497129736</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.05166475315729</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4638,11 +4762,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4671,15 +4791,11 @@
         <v>86604.44586061221</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4708,15 +4824,11 @@
         <v>84330.78656061221</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4745,15 +4857,11 @@
         <v>64707.5701606122</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4782,15 +4890,11 @@
         <v>66126.09596061221</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4823,11 +4927,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4860,11 +4960,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4897,11 +4993,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4930,16 +5022,14 @@
         <v>39850.62056061219</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
       <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -4965,7 +5055,7 @@
         <v>39850.62056061219</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4998,7 +5088,7 @@
         <v>39850.62056061219</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5031,7 +5121,7 @@
         <v>39850.62056061219</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5064,7 +5154,7 @@
         <v>40100.62056061219</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5097,7 +5187,7 @@
         <v>40100.62056061219</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5130,7 +5220,7 @@
         <v>65916.37356061219</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5163,7 +5253,7 @@
         <v>18931.669343183</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5196,7 +5286,7 @@
         <v>18931.669343183</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5229,7 +5319,7 @@
         <v>12531.669343183</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5262,7 +5352,7 @@
         <v>10531.669343183</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5295,7 +5385,7 @@
         <v>15824.890143183</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5328,7 +5418,7 @@
         <v>29424.890143183</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5394,7 +5484,7 @@
         <v>59779.00812575381</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5427,7 +5517,7 @@
         <v>66840.57282575381</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5460,7 +5550,7 @@
         <v>50872.42002575382</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5526,7 +5616,7 @@
         <v>53972.42002575382</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5559,7 +5649,7 @@
         <v>44160.44912575382</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5592,7 +5682,7 @@
         <v>47674.73112575382</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5625,7 +5715,7 @@
         <v>48368.30682575382</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5724,7 +5814,7 @@
         <v>45399.70312575382</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5757,7 +5847,7 @@
         <v>45399.70312575382</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5790,7 +5880,7 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5823,7 +5913,7 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5856,7 +5946,7 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5889,7 +5979,7 @@
         <v>44925.69172575382</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5922,7 +6012,7 @@
         <v>44958.51062575382</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5955,7 +6045,7 @@
         <v>44858.85522575382</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5966,6 +6056,6 @@
       <c r="M162" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest CTXC.xlsx
+++ b/BackTest/2019-10-30 BackTest CTXC.xlsx
@@ -1111,7 +1111,7 @@
         <v>67556.79000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>73005.84590000001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>72234.13250000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>72234.13250000002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>66894.46970000002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>66894.46970000002</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>66894.46970000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>66894.46970000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>66894.46970000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>67967.72980000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>67967.72980000002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>68134.12710000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>65034.12710000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>65034.12710000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>64624.12710000001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>64624.12710000001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>59011.85210000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>59313.02300000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>51227.62990000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>60792.38930000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>41192.38930000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1671.298900000009</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1671.298900000009</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1671.298900000009</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>1126.842400000009</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-13873.15759999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-13873.15759999999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2497,10 +2497,14 @@
         <v>-41688.63209999999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="J64" t="n">
+        <v>87.5</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
@@ -2530,11 +2534,19 @@
         <v>-77080.7898</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="J65" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2575,19 @@
         <v>-77080.7898</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J66" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2616,19 @@
         <v>-77080.7898</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J67" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2635,9 +2663,13 @@
         <v>87.09999999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+        <v>87.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2672,11 +2704,11 @@
         <v>87.09999999999999</v>
       </c>
       <c r="J69" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -2713,11 +2745,11 @@
         <v>87.09999999999999</v>
       </c>
       <c r="J70" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2751,8 +2783,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2784,8 +2822,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2814,15 +2858,17 @@
         <v>-76903.8085</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>87.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+        <v>87.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2851,15 +2897,17 @@
         <v>-76914.8085</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>89.2</v>
+      </c>
       <c r="J74" t="n">
-        <v>87.2</v>
+        <v>87.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2890,15 +2938,17 @@
         <v>-76914.8085</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>87.5</v>
+      </c>
       <c r="J75" t="n">
-        <v>87.2</v>
+        <v>87.5</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -2929,11 +2979,19 @@
         <v>-100429.9348</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="J76" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2968,9 +3026,13 @@
         <v>87.09999999999999</v>
       </c>
       <c r="J77" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+        <v>87.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2999,15 +3061,17 @@
         <v>-93450.4105</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>87.09999999999999</v>
+      </c>
       <c r="J78" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L78" t="n">
@@ -3038,11 +3102,13 @@
         <v>-106943.8675</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>89</v>
+      </c>
       <c r="J79" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3083,7 +3149,7 @@
         <v>86.09999999999999</v>
       </c>
       <c r="J80" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3118,11 +3184,13 @@
         <v>-89036.855</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>88.7</v>
+      </c>
       <c r="J81" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3157,11 +3225,13 @@
         <v>-89036.855</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>88.7</v>
+      </c>
       <c r="J82" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3196,11 +3266,13 @@
         <v>-77036.855</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>88.7</v>
+      </c>
       <c r="J83" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3235,11 +3307,13 @@
         <v>-77036.855</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>89.7</v>
+      </c>
       <c r="J84" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3274,11 +3348,13 @@
         <v>-79840.0747</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>89.7</v>
+      </c>
       <c r="J85" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3313,11 +3389,13 @@
         <v>-64367.40459999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>89.09999999999999</v>
+      </c>
       <c r="J86" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3352,11 +3430,13 @@
         <v>-57733.43199999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>89.59999999999999</v>
+      </c>
       <c r="J87" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3391,11 +3471,13 @@
         <v>-57733.43199999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>89.7</v>
+      </c>
       <c r="J88" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3430,11 +3512,13 @@
         <v>-57733.43199999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>89.7</v>
+      </c>
       <c r="J89" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3469,11 +3553,13 @@
         <v>-57733.43199999999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>89.7</v>
+      </c>
       <c r="J90" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3508,11 +3594,13 @@
         <v>-57733.43199999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>89.7</v>
+      </c>
       <c r="J91" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3547,11 +3635,13 @@
         <v>48981.47100000001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>89.7</v>
+      </c>
       <c r="J92" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3590,7 +3680,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3629,7 +3719,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3668,7 +3758,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3707,7 +3797,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3746,7 +3836,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3785,7 +3875,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3824,7 +3914,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3863,7 +3953,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3902,7 +3992,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3941,7 +4031,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3980,7 +4070,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4019,7 +4109,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4058,7 +4148,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4097,7 +4187,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4136,7 +4226,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4175,7 +4265,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4214,7 +4304,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4253,7 +4343,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4292,7 +4382,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4331,7 +4421,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4370,7 +4460,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4409,7 +4499,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4448,7 +4538,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4487,7 +4577,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4526,7 +4616,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4565,7 +4655,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4604,7 +4694,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4643,7 +4733,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4682,7 +4772,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4717,23 +4807,21 @@
         <v>88047.41286061221</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>87.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.07077497129736</v>
-      </c>
-      <c r="M122" t="n">
-        <v>1.05166475315729</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4758,13 +4846,19 @@
         <v>87047.41286061221</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L123" t="n">
-        <v>1</v>
+        <v>1.036142857142857</v>
       </c>
       <c r="M123" t="inlineStr"/>
     </row>
@@ -4791,7 +4885,7 @@
         <v>86604.44586061221</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4824,7 +4918,7 @@
         <v>84330.78656061221</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4857,7 +4951,7 @@
         <v>64707.5701606122</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4890,7 +4984,7 @@
         <v>66126.09596061221</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5550,7 +5644,7 @@
         <v>50872.42002575382</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5682,7 +5776,7 @@
         <v>47674.73112575382</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5880,7 +5974,7 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5913,7 +6007,7 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5946,7 +6040,7 @@
         <v>45319.91872575382</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5979,7 +6073,7 @@
         <v>44925.69172575382</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>

--- a/BackTest/2019-10-30 BackTest CTXC.xlsx
+++ b/BackTest/2019-10-30 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>393.2527</v>
       </c>
       <c r="G2" t="n">
-        <v>23152.39340000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>18848.7478</v>
       </c>
       <c r="G3" t="n">
-        <v>23152.39340000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>18848.7479</v>
       </c>
       <c r="G4" t="n">
-        <v>23152.39340000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>402.2854</v>
       </c>
       <c r="G5" t="n">
-        <v>23152.39340000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1710.4605</v>
       </c>
       <c r="G6" t="n">
-        <v>23152.39340000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>9295.3464</v>
       </c>
       <c r="G7" t="n">
-        <v>23152.39340000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1258.5936</v>
       </c>
       <c r="G8" t="n">
-        <v>23152.39340000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>4821.3236</v>
       </c>
       <c r="G9" t="n">
-        <v>23152.39340000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>372.8724</v>
       </c>
       <c r="G10" t="n">
-        <v>22779.52100000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1526.6255</v>
       </c>
       <c r="G11" t="n">
-        <v>24306.14650000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>11312.2171</v>
       </c>
       <c r="G12" t="n">
-        <v>35618.36360000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1400.1863</v>
       </c>
       <c r="G13" t="n">
-        <v>35618.36360000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>480.5088</v>
       </c>
       <c r="G14" t="n">
-        <v>36098.87240000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2581.8099</v>
       </c>
       <c r="G15" t="n">
-        <v>33517.06250000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>476.736</v>
       </c>
       <c r="G16" t="n">
-        <v>33040.32650000002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>13335.6028</v>
       </c>
       <c r="G17" t="n">
-        <v>46375.92930000002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2080.8607</v>
       </c>
       <c r="G18" t="n">
-        <v>48456.79000000002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>11200</v>
       </c>
       <c r="G19" t="n">
-        <v>59656.79000000002</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>7900</v>
       </c>
       <c r="G20" t="n">
-        <v>67556.79000000001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>15000</v>
       </c>
       <c r="G21" t="n">
-        <v>67556.79000000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>7730.1194</v>
       </c>
       <c r="G22" t="n">
-        <v>67556.79000000001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>5449.0559</v>
       </c>
       <c r="G23" t="n">
-        <v>73005.84590000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>771.7134</v>
       </c>
       <c r="G24" t="n">
-        <v>72234.13250000002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>727.7807</v>
       </c>
       <c r="G25" t="n">
-        <v>72234.13250000002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>5339.6628</v>
       </c>
       <c r="G26" t="n">
-        <v>66894.46970000002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>521</v>
       </c>
       <c r="G27" t="n">
-        <v>66894.46970000002</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>288.3049</v>
       </c>
       <c r="G28" t="n">
-        <v>66894.46970000002</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>933.4874</v>
       </c>
       <c r="G29" t="n">
-        <v>66894.46970000002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1503.1069</v>
       </c>
       <c r="G30" t="n">
-        <v>66894.46970000002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>604.5505000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>66894.46970000002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1073.2601</v>
       </c>
       <c r="G32" t="n">
-        <v>67967.72980000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>2129.2448</v>
       </c>
       <c r="G33" t="n">
-        <v>67967.72980000002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>166.3973</v>
       </c>
       <c r="G34" t="n">
-        <v>68134.12710000001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>3100</v>
       </c>
       <c r="G35" t="n">
-        <v>65034.12710000001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>5968.1841</v>
       </c>
       <c r="G36" t="n">
-        <v>65034.12710000001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>410</v>
       </c>
       <c r="G37" t="n">
-        <v>64624.12710000001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1664.779</v>
       </c>
       <c r="G38" t="n">
-        <v>64624.12710000001</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>5612.275</v>
       </c>
       <c r="G39" t="n">
-        <v>59011.85210000001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>301.1709</v>
       </c>
       <c r="G40" t="n">
-        <v>59313.02300000001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1847.7195</v>
       </c>
       <c r="G41" t="n">
-        <v>59313.02300000001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>2140.6891</v>
       </c>
       <c r="G42" t="n">
-        <v>59313.02300000001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2703.0233</v>
       </c>
       <c r="G43" t="n">
-        <v>59313.02300000001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>7865.1325</v>
       </c>
       <c r="G44" t="n">
-        <v>59313.02300000001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>8085.3931</v>
       </c>
       <c r="G45" t="n">
-        <v>51227.62990000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>944.0368</v>
       </c>
       <c r="G46" t="n">
-        <v>51227.62990000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>208.2215</v>
       </c>
       <c r="G47" t="n">
-        <v>51227.62990000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>9564.759400000001</v>
       </c>
       <c r="G48" t="n">
-        <v>60792.38930000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>19600</v>
       </c>
       <c r="G49" t="n">
-        <v>41192.38930000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>39521.0904</v>
       </c>
       <c r="G50" t="n">
-        <v>1671.298900000009</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>406.8737</v>
       </c>
       <c r="G51" t="n">
-        <v>1671.298900000009</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>229.9721</v>
       </c>
       <c r="G52" t="n">
-        <v>1671.298900000009</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>544.4565</v>
       </c>
       <c r="G53" t="n">
-        <v>1126.842400000009</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>706.9164</v>
       </c>
       <c r="G54" t="n">
-        <v>1126.842400000009</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2754.4978</v>
       </c>
       <c r="G55" t="n">
-        <v>1126.842400000009</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>51.7239</v>
       </c>
       <c r="G56" t="n">
-        <v>1126.842400000009</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>15000</v>
       </c>
       <c r="G57" t="n">
-        <v>-13873.15759999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>14850</v>
       </c>
       <c r="G58" t="n">
-        <v>-13873.15759999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>3500</v>
       </c>
       <c r="G59" t="n">
-        <v>-13873.15759999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>15389.675</v>
       </c>
       <c r="G60" t="n">
-        <v>-13873.15759999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>27815.4745</v>
       </c>
       <c r="G61" t="n">
-        <v>-41688.63209999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>8948.860199999999</v>
       </c>
       <c r="G62" t="n">
-        <v>-41688.63209999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>5278.6957</v>
       </c>
       <c r="G63" t="n">
-        <v>-41688.63209999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,22 +2303,15 @@
         <v>70</v>
       </c>
       <c r="G64" t="n">
-        <v>-41688.63209999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2531,1244 +2333,1067 @@
         <v>35392.1577</v>
       </c>
       <c r="G65" t="n">
-        <v>-77080.7898</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C66" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D66" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E66" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F66" t="n">
+        <v>8222.8097</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C67" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D67" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E67" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3051.0108</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C68" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D68" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E68" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F68" t="n">
+        <v>824</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D69" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E69" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1733.5146</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C70" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D70" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E70" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F70" t="n">
+        <v>127125.1236</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C71" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D71" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="E71" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1601.6671</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="I71" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="E72" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>165.9813</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="I72" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
         <v>87.5</v>
       </c>
-      <c r="J65" t="n">
+      <c r="C73" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E73" t="n">
         <v>87.5</v>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="F73" t="n">
+        <v>11</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E74" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>11</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="I74" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E75" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5031.5039</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D76" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="E76" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F76" t="n">
+        <v>23515.1263</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C77" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D77" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E77" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="F66" t="n">
-        <v>8222.8097</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-77080.7898</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J66" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
+      <c r="F77" t="n">
+        <v>1504.8098</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="C78" t="n">
+        <v>89</v>
+      </c>
+      <c r="D78" t="n">
+        <v>89</v>
+      </c>
+      <c r="E78" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6979.5243</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="C67" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D67" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E67" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F67" t="n">
-        <v>3051.0108</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-77080.7898</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J67" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K67" t="inlineStr">
+      <c r="I78" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="C68" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D68" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E68" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F68" t="n">
-        <v>824</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-77080.7898</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J68" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="D79" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="F79" t="n">
+        <v>13493.457</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="C69" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D69" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E69" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F69" t="n">
-        <v>1733.5146</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-77080.7898</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J69" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="C80" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D80" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E80" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="F80" t="n">
+        <v>17907.0125</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="C70" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D70" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E70" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F70" t="n">
-        <v>127125.1236</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-77080.7898</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J70" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C81" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D81" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E81" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1195.4227</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="C71" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D71" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E71" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1601.6671</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-77080.7898</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C82" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="D82" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="E82" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2317.1321</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="D72" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="E72" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="F72" t="n">
-        <v>165.9813</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-76914.8085</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="C83" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D83" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E83" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="F83" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="C73" t="n">
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="C84" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D84" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E84" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="F84" t="n">
+        <v>29871.4262</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
         <v>89.2</v>
       </c>
-      <c r="D73" t="n">
-        <v>89.2</v>
-      </c>
-      <c r="E73" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="F73" t="n">
-        <v>11</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-76903.8085</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="C74" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="D74" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="E74" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="F74" t="n">
-        <v>11</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-76914.8085</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="C85" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="D85" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="E85" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2803.2197</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
         <v>89.2</v>
       </c>
-      <c r="J74" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="C75" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="D75" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="E75" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="F75" t="n">
-        <v>5031.5039</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-76914.8085</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="J75" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="C86" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="D86" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E86" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15472.6701</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="C76" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D76" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="E76" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23515.1263</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-100429.9348</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="C87" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D87" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E87" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="F87" t="n">
+        <v>6633.9726</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="C77" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D77" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="E77" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F77" t="n">
-        <v>1504.8098</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-100429.9348</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J77" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C88" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10969.2092</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="C78" t="n">
-        <v>89</v>
-      </c>
-      <c r="D78" t="n">
-        <v>89</v>
-      </c>
-      <c r="E78" t="n">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="F78" t="n">
-        <v>6979.5243</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-93450.4105</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J78" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C89" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D89" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>46662.8519</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="C79" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="D79" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="E79" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="F79" t="n">
-        <v>13493.457</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-106943.8675</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>89</v>
-      </c>
-      <c r="J79" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C90" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D90" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E90" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="C80" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D80" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E80" t="n">
-        <v>87.7</v>
-      </c>
-      <c r="F80" t="n">
-        <v>17907.0125</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-89036.855</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="J80" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D91" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E91" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F91" t="n">
+        <v>14650</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C81" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D81" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E81" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1195.4227</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-89036.855</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F92" t="n">
+        <v>106714.903</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C82" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="D82" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="E82" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F82" t="n">
-        <v>2317.1321</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-89036.855</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="J82" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>98</v>
+      </c>
+      <c r="D93" t="n">
+        <v>98</v>
+      </c>
+      <c r="E93" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>106870.1512606122</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="C83" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D83" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E83" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="F83" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-77036.855</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="J83" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="D94" t="n">
+        <v>98</v>
+      </c>
+      <c r="E94" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="F94" t="n">
+        <v>81402.0727</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="C84" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D84" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E84" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="F84" t="n">
-        <v>29871.4262</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-77036.855</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="C95" t="n">
+        <v>94</v>
+      </c>
+      <c r="D95" t="n">
+        <v>96</v>
+      </c>
+      <c r="E95" t="n">
+        <v>94</v>
+      </c>
+      <c r="F95" t="n">
+        <v>6039.6149</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="C85" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="D85" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="E85" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="F85" t="n">
-        <v>2803.2197</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-79840.0747</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J85" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="C86" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="D86" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E86" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="F86" t="n">
-        <v>15472.6701</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-64367.40459999999</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="J86" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="C87" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D87" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E87" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="F87" t="n">
-        <v>6633.9726</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-57733.43199999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="J87" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C88" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D88" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E88" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>10969.2092</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-57733.43199999999</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C89" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D89" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E89" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F89" t="n">
-        <v>46662.8519</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-57733.43199999999</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C90" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D90" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E90" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F90" t="n">
-        <v>3200</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-57733.43199999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J90" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C91" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D91" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E91" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F91" t="n">
-        <v>14650</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-57733.43199999999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J91" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C92" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="D92" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="E92" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F92" t="n">
-        <v>106714.903</v>
-      </c>
-      <c r="G92" t="n">
-        <v>48981.47100000001</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="C93" t="n">
-        <v>98</v>
-      </c>
-      <c r="D93" t="n">
-        <v>98</v>
-      </c>
-      <c r="E93" t="n">
-        <v>93.5</v>
-      </c>
-      <c r="F93" t="n">
-        <v>106870.1512606122</v>
-      </c>
-      <c r="G93" t="n">
-        <v>155851.6222606122</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>93</v>
-      </c>
-      <c r="C94" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="D94" t="n">
-        <v>98</v>
-      </c>
-      <c r="E94" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="F94" t="n">
-        <v>81402.0727</v>
-      </c>
-      <c r="G94" t="n">
-        <v>74449.5495606122</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="C95" t="n">
-        <v>94</v>
-      </c>
-      <c r="D95" t="n">
-        <v>96</v>
-      </c>
-      <c r="E95" t="n">
-        <v>94</v>
-      </c>
-      <c r="F95" t="n">
-        <v>6039.6149</v>
-      </c>
-      <c r="G95" t="n">
-        <v>68409.9346606122</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3790,24 +3415,23 @@
         <v>11</v>
       </c>
       <c r="G96" t="n">
-        <v>68420.9346606122</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="K96" t="n">
+        <v>1.060022421524664</v>
+      </c>
       <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>1.05166475315729</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3829,24 +3453,15 @@
         <v>637.2179</v>
       </c>
       <c r="G97" t="n">
-        <v>67783.71676061219</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3868,24 +3483,15 @@
         <v>31994.7605</v>
       </c>
       <c r="G98" t="n">
-        <v>35788.95626061219</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3907,24 +3513,15 @@
         <v>5072.604</v>
       </c>
       <c r="G99" t="n">
-        <v>40861.56026061219</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3946,24 +3543,15 @@
         <v>2896.0235</v>
       </c>
       <c r="G100" t="n">
-        <v>40861.56026061219</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3985,24 +3573,15 @@
         <v>21</v>
       </c>
       <c r="G101" t="n">
-        <v>40840.56026061219</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4024,24 +3603,15 @@
         <v>19155.8656</v>
       </c>
       <c r="G102" t="n">
-        <v>40840.56026061219</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4063,24 +3633,15 @@
         <v>110</v>
       </c>
       <c r="G103" t="n">
-        <v>40950.56026061219</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4102,24 +3663,15 @@
         <v>8885</v>
       </c>
       <c r="G104" t="n">
-        <v>32065.56026061219</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4141,24 +3693,15 @@
         <v>14300</v>
       </c>
       <c r="G105" t="n">
-        <v>17765.56026061219</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4180,24 +3723,15 @@
         <v>500</v>
       </c>
       <c r="G106" t="n">
-        <v>17765.56026061219</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4219,24 +3753,15 @@
         <v>19001.6308</v>
       </c>
       <c r="G107" t="n">
-        <v>36767.19106061219</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4258,24 +3783,15 @@
         <v>6817.8834</v>
       </c>
       <c r="G108" t="n">
-        <v>36767.19106061219</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4297,24 +3813,15 @@
         <v>25166.6182</v>
       </c>
       <c r="G109" t="n">
-        <v>61933.80926061219</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4336,24 +3843,15 @@
         <v>2838.8907</v>
       </c>
       <c r="G110" t="n">
-        <v>61933.80926061219</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4375,24 +3873,15 @@
         <v>33691.4608</v>
       </c>
       <c r="G111" t="n">
-        <v>28242.34846061219</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4414,24 +3903,15 @@
         <v>31410.2933</v>
       </c>
       <c r="G112" t="n">
-        <v>59652.6417606122</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4453,24 +3933,15 @@
         <v>3951.9624</v>
       </c>
       <c r="G113" t="n">
-        <v>55700.6793606122</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4492,24 +3963,15 @@
         <v>5797.3657</v>
       </c>
       <c r="G114" t="n">
-        <v>49903.3136606122</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4531,24 +3993,15 @@
         <v>1286.2465</v>
       </c>
       <c r="G115" t="n">
-        <v>48617.0671606122</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4570,24 +4023,15 @@
         <v>9700</v>
       </c>
       <c r="G116" t="n">
-        <v>58317.0671606122</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4609,24 +4053,15 @@
         <v>319.8662</v>
       </c>
       <c r="G117" t="n">
-        <v>57997.2009606122</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4648,24 +4083,15 @@
         <v>18408.2176</v>
       </c>
       <c r="G118" t="n">
-        <v>76405.4185606122</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4687,24 +4113,15 @@
         <v>10395.9169</v>
       </c>
       <c r="G119" t="n">
-        <v>66009.50166061221</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4726,24 +4143,15 @@
         <v>8215.265100000001</v>
       </c>
       <c r="G120" t="n">
-        <v>74224.76676061221</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4765,24 +4173,15 @@
         <v>14344.0441</v>
       </c>
       <c r="G121" t="n">
-        <v>88568.81086061221</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4804,24 +4203,15 @@
         <v>521.398</v>
       </c>
       <c r="G122" t="n">
-        <v>88047.41286061221</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4843,24 +4233,15 @@
         <v>1000</v>
       </c>
       <c r="G123" t="n">
-        <v>87047.41286061221</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1.036142857142857</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4882,18 +4263,15 @@
         <v>442.967</v>
       </c>
       <c r="G124" t="n">
-        <v>86604.44586061221</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4915,18 +4293,15 @@
         <v>2273.6593</v>
       </c>
       <c r="G125" t="n">
-        <v>84330.78656061221</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4948,18 +4323,15 @@
         <v>19623.2164</v>
       </c>
       <c r="G126" t="n">
-        <v>64707.5701606122</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4981,18 +4353,15 @@
         <v>1418.5258</v>
       </c>
       <c r="G127" t="n">
-        <v>66126.09596061221</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5014,18 +4383,15 @@
         <v>3328.8619</v>
       </c>
       <c r="G128" t="n">
-        <v>62797.2340606122</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5047,18 +4413,15 @@
         <v>19153.984</v>
       </c>
       <c r="G129" t="n">
-        <v>62797.2340606122</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5080,18 +4443,15 @@
         <v>5546.219</v>
       </c>
       <c r="G130" t="n">
-        <v>68343.4530606122</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5113,18 +4473,15 @@
         <v>28492.8325</v>
       </c>
       <c r="G131" t="n">
-        <v>39850.62056061219</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5146,18 +4503,15 @@
         <v>9196.025299999999</v>
       </c>
       <c r="G132" t="n">
-        <v>39850.62056061219</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5179,18 +4533,15 @@
         <v>15014.1757</v>
       </c>
       <c r="G133" t="n">
-        <v>39850.62056061219</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5212,18 +4563,15 @@
         <v>5043.8386</v>
       </c>
       <c r="G134" t="n">
-        <v>39850.62056061219</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5245,18 +4593,15 @@
         <v>250</v>
       </c>
       <c r="G135" t="n">
-        <v>40100.62056061219</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5278,18 +4623,15 @@
         <v>1000</v>
       </c>
       <c r="G136" t="n">
-        <v>40100.62056061219</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5311,18 +4653,15 @@
         <v>25815.753</v>
       </c>
       <c r="G137" t="n">
-        <v>65916.37356061219</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5344,18 +4683,15 @@
         <v>46984.70421742919</v>
       </c>
       <c r="G138" t="n">
-        <v>18931.669343183</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5377,18 +4713,15 @@
         <v>3742.8318</v>
       </c>
       <c r="G139" t="n">
-        <v>18931.669343183</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5410,18 +4743,15 @@
         <v>6400</v>
       </c>
       <c r="G140" t="n">
-        <v>12531.669343183</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5443,18 +4773,15 @@
         <v>2000</v>
       </c>
       <c r="G141" t="n">
-        <v>10531.669343183</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5476,18 +4803,15 @@
         <v>5293.2208</v>
       </c>
       <c r="G142" t="n">
-        <v>15824.890143183</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5509,18 +4833,15 @@
         <v>13600</v>
       </c>
       <c r="G143" t="n">
-        <v>29424.890143183</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5542,18 +4863,15 @@
         <v>30254.11798257081</v>
       </c>
       <c r="G144" t="n">
-        <v>59679.00812575381</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5575,18 +4893,15 @@
         <v>100</v>
       </c>
       <c r="G145" t="n">
-        <v>59779.00812575381</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5608,18 +4923,15 @@
         <v>7061.5647</v>
       </c>
       <c r="G146" t="n">
-        <v>66840.57282575381</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5641,18 +4953,15 @@
         <v>15968.1528</v>
       </c>
       <c r="G147" t="n">
-        <v>50872.42002575382</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5674,18 +4983,15 @@
         <v>3100</v>
       </c>
       <c r="G148" t="n">
-        <v>53972.42002575382</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5707,18 +5013,15 @@
         <v>2525.4564</v>
       </c>
       <c r="G149" t="n">
-        <v>53972.42002575382</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5740,18 +5043,15 @@
         <v>9811.9709</v>
       </c>
       <c r="G150" t="n">
-        <v>44160.44912575382</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5773,18 +5073,15 @@
         <v>3514.282</v>
       </c>
       <c r="G151" t="n">
-        <v>47674.73112575382</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5806,18 +5103,15 @@
         <v>693.5757</v>
       </c>
       <c r="G152" t="n">
-        <v>48368.30682575382</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5839,18 +5133,15 @@
         <v>1955.9026</v>
       </c>
       <c r="G153" t="n">
-        <v>46412.40422575382</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5872,18 +5163,15 @@
         <v>1162.0967</v>
       </c>
       <c r="G154" t="n">
-        <v>45250.30752575381</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5905,18 +5193,15 @@
         <v>149.3956</v>
       </c>
       <c r="G155" t="n">
-        <v>45399.70312575382</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5938,18 +5223,15 @@
         <v>318.4462</v>
       </c>
       <c r="G156" t="n">
-        <v>45399.70312575382</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5971,18 +5253,15 @@
         <v>79.78440000000001</v>
       </c>
       <c r="G157" t="n">
-        <v>45319.91872575382</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6004,18 +5283,15 @@
         <v>59.8383</v>
       </c>
       <c r="G158" t="n">
-        <v>45319.91872575382</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6037,18 +5313,15 @@
         <v>44.8787</v>
       </c>
       <c r="G159" t="n">
-        <v>45319.91872575382</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6070,18 +5343,15 @@
         <v>394.227</v>
       </c>
       <c r="G160" t="n">
-        <v>44925.69172575382</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6103,18 +5373,15 @@
         <v>32.8189</v>
       </c>
       <c r="G161" t="n">
-        <v>44958.51062575382</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6136,18 +5403,15 @@
         <v>99.6554</v>
       </c>
       <c r="G162" t="n">
-        <v>44858.85522575382</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
